--- a/datasets/distiller_cross.xlsx
+++ b/datasets/distiller_cross.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{76C60C3D-CCCE-45C3-84B9-F1E18127AD9A}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE6CE7C5-01E7-467C-8AD7-C97CD92E63DE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,9 +327,6 @@
     <t>Physician diagnoses asthma in all children</t>
   </si>
   <si>
-    <t>&amp;lt;=3 vs &amp;gt;3 Miles From Nearest Swine CAFO</t>
-  </si>
-  <si>
     <t>Current wheeze without physician diagnosis in children with self-reported allergies</t>
   </si>
   <si>
@@ -1474,6 +1471,9 @@
   </si>
   <si>
     <t xml:space="preserve">Interpolated ammonia exposure </t>
+  </si>
+  <si>
+    <t>&gt;=3 vs &lt;= 3 Miles From Nearest Swine CAFO</t>
   </si>
 </sst>
 </file>
@@ -1848,11 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BL112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1939,25 +1938,25 @@
         <v>24</v>
       </c>
       <c r="Z1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AA1" t="s">
         <v>401</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>402</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>403</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="AD1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AE1" t="s">
         <v>404</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>405</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>406</v>
       </c>
       <c r="AG1" t="s">
         <v>26</v>
@@ -2056,7 +2055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2079,52 +2078,52 @@
         <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="AG2" t="s">
         <v>64</v>
@@ -2142,7 +2141,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2165,52 +2164,52 @@
         <v>68</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L3" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W3" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="AG3" t="s">
         <v>64</v>
@@ -2228,7 +2227,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2251,52 +2250,52 @@
         <v>70</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="R4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>380</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG4" t="s">
         <v>64</v>
@@ -2314,7 +2313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2337,52 +2336,52 @@
         <v>68</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG5" t="s">
         <v>64</v>
@@ -2400,7 +2399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2423,52 +2422,52 @@
         <v>63</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="R6" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG6" t="s">
         <v>64</v>
@@ -2486,7 +2485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2509,52 +2508,52 @@
         <v>70</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M7" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="P7" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>379</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U7" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="W7" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="X7" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG7" t="s">
         <v>64</v>
@@ -2572,7 +2571,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2595,52 +2594,52 @@
         <v>68</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R8" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="T8" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U8" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>375</v>
-      </c>
       <c r="X8" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG8" t="s">
         <v>64</v>
@@ -2681,13 +2680,13 @@
         <v>73</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG9" t="s">
         <v>74</v>
@@ -2758,13 +2757,13 @@
         <v>73</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG10" t="s">
         <v>74</v>
@@ -2835,13 +2834,13 @@
         <v>73</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG11" t="s">
         <v>74</v>
@@ -2889,7 +2888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2912,16 +2911,16 @@
         <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG12" t="s">
         <v>74</v>
@@ -2939,7 +2938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2962,13 +2961,13 @@
         <v>73</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG13" t="s">
         <v>74</v>
@@ -2986,7 +2985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3009,16 +3008,16 @@
         <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG14" t="s">
         <v>74</v>
@@ -3036,7 +3035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3059,16 +3058,16 @@
         <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG15" t="s">
         <v>64</v>
@@ -3086,7 +3085,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3109,16 +3108,16 @@
         <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s">
         <v>64</v>
@@ -3136,7 +3135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -3159,13 +3158,13 @@
         <v>73</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG17" t="s">
         <v>64</v>
@@ -3183,7 +3182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3206,13 +3205,13 @@
         <v>73</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG18" t="s">
         <v>64</v>
@@ -3230,7 +3229,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3253,13 +3252,13 @@
         <v>73</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s">
         <v>64</v>
@@ -3277,7 +3276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3300,13 +3299,13 @@
         <v>73</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG20" t="s">
         <v>64</v>
@@ -3324,7 +3323,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3347,13 +3346,13 @@
         <v>73</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s">
         <v>74</v>
@@ -3371,7 +3370,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3394,13 +3393,13 @@
         <v>73</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG22" t="s">
         <v>74</v>
@@ -3418,7 +3417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3441,13 +3440,13 @@
         <v>73</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG23" t="s">
         <v>74</v>
@@ -3465,7 +3464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3488,13 +3487,13 @@
         <v>73</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG24" t="s">
         <v>64</v>
@@ -3512,7 +3511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3535,13 +3534,13 @@
         <v>73</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG25" t="s">
         <v>64</v>
@@ -3559,7 +3558,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3582,13 +3581,13 @@
         <v>73</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG26" t="s">
         <v>64</v>
@@ -3606,7 +3605,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3626,55 +3625,55 @@
         <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="N27" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG27" t="s">
         <v>64</v>
@@ -3692,7 +3691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3712,55 +3711,55 @@
         <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="I28" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M28" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M28" s="3" t="s">
+      <c r="N28" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="S28" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="U28" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="O28" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="W28" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="X28" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG28" t="s">
         <v>64</v>
@@ -3778,7 +3777,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3792,22 +3791,22 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
         <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG29" t="s">
         <v>64</v>
@@ -3825,7 +3824,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3845,16 +3844,16 @@
         <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K30" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="L30" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG30" t="s">
         <v>64</v>
@@ -3872,7 +3871,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3892,16 +3891,16 @@
         <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG31" t="s">
         <v>64</v>
@@ -3919,7 +3918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -3939,16 +3938,16 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG32" t="s">
         <v>64</v>
@@ -3966,7 +3965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3986,16 +3985,16 @@
         <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG33" t="s">
         <v>74</v>
@@ -4013,7 +4012,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4033,16 +4032,16 @@
         <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG34" t="s">
         <v>74</v>
@@ -4060,7 +4059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -4080,16 +4079,16 @@
         <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG35" t="s">
         <v>64</v>
@@ -4107,7 +4106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -4127,16 +4126,16 @@
         <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG36" t="s">
         <v>64</v>
@@ -4154,7 +4153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -4174,16 +4173,16 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG37" t="s">
         <v>64</v>
@@ -4201,7 +4200,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -4221,19 +4220,19 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="I38" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG38" t="s">
         <v>74</v>
@@ -4251,7 +4250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -4271,16 +4270,16 @@
         <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG39" t="s">
         <v>74</v>
@@ -4298,7 +4297,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -4312,25 +4311,25 @@
         <v>60</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F40" t="s">
         <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG40" t="s">
         <v>74</v>
@@ -4348,7 +4347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -4368,19 +4367,19 @@
         <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="I41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG41" t="s">
         <v>74</v>
@@ -4398,7 +4397,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -4418,16 +4417,16 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG42" t="s">
         <v>74</v>
@@ -4445,7 +4444,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -4459,22 +4458,22 @@
         <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F43" t="s">
         <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG43" t="s">
         <v>64</v>
@@ -4492,7 +4491,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>60</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F44" t="s">
         <v>62</v>
@@ -4515,13 +4514,13 @@
         <v>73</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG44" t="s">
         <v>64</v>
@@ -4539,7 +4538,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -4553,7 +4552,7 @@
         <v>60</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45" t="s">
         <v>62</v>
@@ -4562,13 +4561,13 @@
         <v>73</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG45" t="s">
         <v>64</v>
@@ -4586,7 +4585,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>60</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F46" t="s">
         <v>62</v>
@@ -4609,13 +4608,13 @@
         <v>73</v>
       </c>
       <c r="J46" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K46" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="L46" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG46" t="s">
         <v>64</v>
@@ -4653,16 +4652,16 @@
         <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG47" t="s">
         <v>74</v>
@@ -4674,10 +4673,10 @@
         <v>75</v>
       </c>
       <c r="AP47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ47" t="s">
         <v>105</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>106</v>
       </c>
       <c r="AR47" t="s">
         <v>79</v>
@@ -4730,16 +4729,16 @@
         <v>62</v>
       </c>
       <c r="G48" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG48" t="s">
         <v>74</v>
@@ -4751,10 +4750,10 @@
         <v>75</v>
       </c>
       <c r="AP48" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ48" t="s">
         <v>105</v>
-      </c>
-      <c r="AQ48" t="s">
-        <v>106</v>
       </c>
       <c r="AR48" t="s">
         <v>79</v>
@@ -4807,19 +4806,19 @@
         <v>62</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="I49" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s">
         <v>74</v>
@@ -4831,10 +4830,10 @@
         <v>75</v>
       </c>
       <c r="AP49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ49" t="s">
         <v>105</v>
-      </c>
-      <c r="AQ49" t="s">
-        <v>106</v>
       </c>
       <c r="AR49" t="s">
         <v>79</v>
@@ -4881,25 +4880,25 @@
         <v>60</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
         <v>62</v>
       </c>
       <c r="G50" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="I50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG50" t="s">
         <v>74</v>
@@ -4911,10 +4910,10 @@
         <v>75</v>
       </c>
       <c r="AP50" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ50" t="s">
         <v>105</v>
-      </c>
-      <c r="AQ50" t="s">
-        <v>106</v>
       </c>
       <c r="AR50" t="s">
         <v>79</v>
@@ -4947,7 +4946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -4970,52 +4969,52 @@
         <v>70</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J51" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K51" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K51" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L51" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M51" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="O51" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="O51" s="3" t="s">
+      <c r="P51" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q51" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="P51" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q51" s="3" t="s">
+      <c r="R51" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T51" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="R51" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="S51" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="T51" s="3" t="s">
+      <c r="U51" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="V51" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="W51" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="V51" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="W51" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="X51" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG51" t="s">
         <v>64</v>
@@ -5033,7 +5032,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5056,52 +5055,52 @@
         <v>63</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M52" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M52" s="3" t="s">
+      <c r="N52" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P52" s="3" t="s">
+      <c r="R52" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="U52" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>367</v>
-      </c>
       <c r="V52" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG52" t="s">
         <v>64</v>
@@ -5119,7 +5118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5133,7 +5132,7 @@
         <v>60</v>
       </c>
       <c r="E53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
         <v>62</v>
@@ -5142,16 +5141,16 @@
         <v>73</v>
       </c>
       <c r="I53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG53" t="s">
         <v>74</v>
@@ -5169,7 +5168,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5189,55 +5188,55 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="I54" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="K54" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M54" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M54" s="3" t="s">
+      <c r="N54" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="O54" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="O54" s="3" t="s">
+      <c r="P54" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q54" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q54" s="3" t="s">
+      <c r="R54" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="S54" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="S54" s="3" t="s">
+      <c r="T54" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="V54" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="V54" s="3" t="s">
+      <c r="W54" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="X54" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s">
         <v>64</v>
@@ -5255,7 +5254,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:63" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -5269,22 +5268,22 @@
         <v>60</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
         <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>100</v>
+        <v>482</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG55" t="s">
         <v>64</v>
@@ -5316,7 +5315,7 @@
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
         <v>62</v>
@@ -5325,13 +5324,13 @@
         <v>73</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s">
         <v>74</v>
@@ -5340,37 +5339,37 @@
         <v>66</v>
       </c>
       <c r="AI56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AP56" t="s">
         <v>76</v>
       </c>
       <c r="AQ56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AR56" t="s">
         <v>76</v>
       </c>
       <c r="AS56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AT56" t="s">
         <v>79</v>
       </c>
       <c r="AU56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AV56" t="s">
         <v>79</v>
       </c>
       <c r="AW56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AX56" t="s">
         <v>81</v>
       </c>
       <c r="AY56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AZ56" t="s">
         <v>83</v>
@@ -5381,7 +5380,7 @@
     </row>
     <row r="57" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -5390,16 +5389,16 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" t="s">
         <v>114</v>
-      </c>
-      <c r="E57" t="s">
-        <v>115</v>
       </c>
       <c r="F57" t="s">
         <v>62</v>
       </c>
       <c r="G57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG57" t="s">
         <v>74</v>
@@ -5408,37 +5407,37 @@
         <v>66</v>
       </c>
       <c r="AI57" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ57" t="s">
         <v>117</v>
-      </c>
-      <c r="AP57" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ57" t="s">
-        <v>118</v>
       </c>
       <c r="AR57" t="s">
         <v>81</v>
       </c>
       <c r="AS57" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU57" t="s">
         <v>119</v>
       </c>
-      <c r="AT57" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU57" t="s">
+      <c r="AV57" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW57" t="s">
         <v>120</v>
-      </c>
-      <c r="AV57" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW57" t="s">
-        <v>121</v>
       </c>
       <c r="AX57" t="s">
         <v>79</v>
       </c>
       <c r="AY57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ57" t="s">
         <v>67</v>
@@ -5449,7 +5448,7 @@
     </row>
     <row r="58" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -5458,16 +5457,16 @@
         <v>3</v>
       </c>
       <c r="D58" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" t="s">
         <v>114</v>
-      </c>
-      <c r="E58" t="s">
-        <v>115</v>
       </c>
       <c r="F58" t="s">
         <v>62</v>
       </c>
       <c r="G58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG58" t="s">
         <v>74</v>
@@ -5476,37 +5475,37 @@
         <v>66</v>
       </c>
       <c r="AI58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR58" t="s">
         <v>81</v>
       </c>
       <c r="AS58" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU58" t="s">
         <v>119</v>
       </c>
-      <c r="AT58" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU58" t="s">
+      <c r="AV58" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW58" t="s">
         <v>120</v>
-      </c>
-      <c r="AV58" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW58" t="s">
-        <v>121</v>
       </c>
       <c r="AX58" t="s">
         <v>79</v>
       </c>
       <c r="AY58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ58" t="s">
         <v>67</v>
@@ -5517,7 +5516,7 @@
     </row>
     <row r="59" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -5526,16 +5525,16 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" t="s">
         <v>114</v>
-      </c>
-      <c r="E59" t="s">
-        <v>115</v>
       </c>
       <c r="F59" t="s">
         <v>62</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s">
         <v>74</v>
@@ -5544,37 +5543,37 @@
         <v>66</v>
       </c>
       <c r="AI59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR59" t="s">
         <v>81</v>
       </c>
       <c r="AS59" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU59" t="s">
         <v>119</v>
       </c>
-      <c r="AT59" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU59" t="s">
+      <c r="AV59" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW59" t="s">
         <v>120</v>
-      </c>
-      <c r="AV59" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW59" t="s">
-        <v>121</v>
       </c>
       <c r="AX59" t="s">
         <v>79</v>
       </c>
       <c r="AY59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ59" t="s">
         <v>67</v>
@@ -5585,7 +5584,7 @@
     </row>
     <row r="60" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
@@ -5594,16 +5593,16 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" t="s">
         <v>114</v>
-      </c>
-      <c r="E60" t="s">
-        <v>115</v>
       </c>
       <c r="F60" t="s">
         <v>62</v>
       </c>
       <c r="G60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG60" t="s">
         <v>74</v>
@@ -5612,37 +5611,37 @@
         <v>66</v>
       </c>
       <c r="AI60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR60" t="s">
         <v>81</v>
       </c>
       <c r="AS60" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU60" t="s">
         <v>119</v>
       </c>
-      <c r="AT60" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU60" t="s">
+      <c r="AV60" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW60" t="s">
         <v>120</v>
-      </c>
-      <c r="AV60" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW60" t="s">
-        <v>121</v>
       </c>
       <c r="AX60" t="s">
         <v>79</v>
       </c>
       <c r="AY60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ60" t="s">
         <v>67</v>
@@ -5653,7 +5652,7 @@
     </row>
     <row r="61" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
@@ -5662,16 +5661,16 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" t="s">
         <v>114</v>
-      </c>
-      <c r="E61" t="s">
-        <v>115</v>
       </c>
       <c r="F61" t="s">
         <v>62</v>
       </c>
       <c r="G61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG61" t="s">
         <v>64</v>
@@ -5680,37 +5679,37 @@
         <v>66</v>
       </c>
       <c r="AI61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR61" t="s">
         <v>81</v>
       </c>
       <c r="AS61" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU61" t="s">
         <v>119</v>
       </c>
-      <c r="AT61" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU61" t="s">
+      <c r="AV61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW61" t="s">
         <v>120</v>
-      </c>
-      <c r="AV61" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW61" t="s">
-        <v>121</v>
       </c>
       <c r="AX61" t="s">
         <v>79</v>
       </c>
       <c r="AY61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ61" t="s">
         <v>67</v>
@@ -5721,7 +5720,7 @@
     </row>
     <row r="62" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
@@ -5730,16 +5729,16 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
         <v>114</v>
-      </c>
-      <c r="E62" t="s">
-        <v>115</v>
       </c>
       <c r="F62" t="s">
         <v>62</v>
       </c>
       <c r="G62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AG62" t="s">
         <v>74</v>
@@ -5748,37 +5747,37 @@
         <v>66</v>
       </c>
       <c r="AI62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR62" t="s">
         <v>81</v>
       </c>
       <c r="AS62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT62" t="s">
         <v>79</v>
       </c>
       <c r="AU62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV62" t="s">
         <v>79</v>
       </c>
       <c r="AW62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AX62" t="s">
         <v>79</v>
       </c>
       <c r="AY62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ62" t="s">
         <v>67</v>
@@ -5789,7 +5788,7 @@
     </row>
     <row r="63" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
@@ -5798,16 +5797,16 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" t="s">
         <v>114</v>
       </c>
-      <c r="E63" t="s">
-        <v>115</v>
-      </c>
       <c r="F63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG63" t="s">
         <v>74</v>
@@ -5816,37 +5815,37 @@
         <v>66</v>
       </c>
       <c r="AI63" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR63" t="s">
         <v>81</v>
       </c>
       <c r="AS63" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT63" t="s">
         <v>79</v>
       </c>
       <c r="AU63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV63" t="s">
         <v>79</v>
       </c>
       <c r="AW63" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AX63" t="s">
         <v>79</v>
       </c>
       <c r="AY63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ63" t="s">
         <v>67</v>
@@ -5857,7 +5856,7 @@
     </row>
     <row r="64" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
@@ -5866,16 +5865,16 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
         <v>114</v>
-      </c>
-      <c r="E64" t="s">
-        <v>115</v>
       </c>
       <c r="F64" t="s">
         <v>62</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG64" t="s">
         <v>74</v>
@@ -5884,37 +5883,37 @@
         <v>66</v>
       </c>
       <c r="AI64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AR64" t="s">
         <v>81</v>
       </c>
       <c r="AS64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AT64" t="s">
         <v>79</v>
       </c>
       <c r="AU64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AV64" t="s">
         <v>79</v>
       </c>
       <c r="AW64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AX64" t="s">
         <v>79</v>
       </c>
       <c r="AY64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ64" t="s">
         <v>67</v>
@@ -5925,7 +5924,7 @@
     </row>
     <row r="65" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
@@ -5934,28 +5933,28 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG65" t="s">
         <v>74</v>
@@ -5964,37 +5963,37 @@
         <v>66</v>
       </c>
       <c r="AI65" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ65" t="s">
         <v>117</v>
-      </c>
-      <c r="AP65" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ65" t="s">
-        <v>118</v>
       </c>
       <c r="AR65" t="s">
         <v>81</v>
       </c>
       <c r="AS65" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU65" t="s">
         <v>119</v>
       </c>
-      <c r="AT65" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU65" t="s">
+      <c r="AV65" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW65" t="s">
         <v>120</v>
-      </c>
-      <c r="AV65" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW65" t="s">
-        <v>121</v>
       </c>
       <c r="AX65" t="s">
         <v>79</v>
       </c>
       <c r="AY65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ65" t="s">
         <v>67</v>
@@ -6005,7 +6004,7 @@
     </row>
     <row r="66" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
@@ -6014,64 +6013,64 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I66" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K66" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="J66" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="M66" s="6" t="s">
+      <c r="N66" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q66" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="N66" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="P66" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q66" s="6" t="s">
+      <c r="R66" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="U66" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="R66" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="S66" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="T66" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="U66" s="6" t="s">
+      <c r="V66" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="X66" s="5" t="s">
         <v>415</v>
-      </c>
-      <c r="V66" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="W66" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="X66" s="5" t="s">
-        <v>416</v>
       </c>
       <c r="AG66" t="s">
         <v>74</v>
@@ -6080,37 +6079,37 @@
         <v>66</v>
       </c>
       <c r="AI66" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ66" t="s">
         <v>117</v>
-      </c>
-      <c r="AP66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ66" t="s">
-        <v>118</v>
       </c>
       <c r="AR66" t="s">
         <v>81</v>
       </c>
       <c r="AS66" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU66" t="s">
         <v>119</v>
       </c>
-      <c r="AT66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU66" t="s">
+      <c r="AV66" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW66" t="s">
         <v>120</v>
-      </c>
-      <c r="AV66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW66" t="s">
-        <v>121</v>
       </c>
       <c r="AX66" t="s">
         <v>79</v>
       </c>
       <c r="AY66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ66" t="s">
         <v>67</v>
@@ -6121,7 +6120,7 @@
     </row>
     <row r="67" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
@@ -6130,28 +6129,28 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J67" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG67" t="s">
         <v>74</v>
@@ -6160,37 +6159,37 @@
         <v>66</v>
       </c>
       <c r="AI67" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ67" t="s">
         <v>117</v>
-      </c>
-      <c r="AP67" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ67" t="s">
-        <v>118</v>
       </c>
       <c r="AR67" t="s">
         <v>81</v>
       </c>
       <c r="AS67" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU67" t="s">
         <v>119</v>
       </c>
-      <c r="AT67" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU67" t="s">
+      <c r="AV67" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW67" t="s">
         <v>120</v>
-      </c>
-      <c r="AV67" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW67" t="s">
-        <v>121</v>
       </c>
       <c r="AX67" t="s">
         <v>79</v>
       </c>
       <c r="AY67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ67" t="s">
         <v>67</v>
@@ -6201,7 +6200,7 @@
     </row>
     <row r="68" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
         <v>59</v>
@@ -6210,88 +6209,88 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I68" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="L68" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="J68" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="L68" s="3" t="s">
+      <c r="M68" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="M68" s="6" t="s">
+      <c r="N68" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q68" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q68" s="6" t="s">
+      <c r="R68" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U68" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="R68" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="T68" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="U68" s="6" t="s">
+      <c r="V68" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="V68" s="3" t="s">
+      <c r="W68" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="X68" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="W68" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="X68" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="Y68" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z68" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB68" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="AC68" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="Z68" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA68" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB68" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC68" s="6" t="s">
+      <c r="AD68" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="AD68" s="3" t="s">
+      <c r="AE68" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="AE68" s="3" t="s">
+      <c r="AF68" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="AF68" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="AG68" t="s">
         <v>74</v>
@@ -6300,37 +6299,37 @@
         <v>66</v>
       </c>
       <c r="AI68" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ68" t="s">
         <v>117</v>
-      </c>
-      <c r="AP68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ68" t="s">
-        <v>118</v>
       </c>
       <c r="AR68" t="s">
         <v>81</v>
       </c>
       <c r="AS68" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU68" t="s">
         <v>119</v>
       </c>
-      <c r="AT68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU68" t="s">
+      <c r="AV68" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW68" t="s">
         <v>120</v>
-      </c>
-      <c r="AV68" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW68" t="s">
-        <v>121</v>
       </c>
       <c r="AX68" t="s">
         <v>79</v>
       </c>
       <c r="AY68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ68" t="s">
         <v>67</v>
@@ -6341,7 +6340,7 @@
     </row>
     <row r="69" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
         <v>59</v>
@@ -6350,25 +6349,25 @@
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E69" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
         <v>62</v>
       </c>
       <c r="G69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG69" t="s">
         <v>74</v>
@@ -6377,37 +6376,37 @@
         <v>66</v>
       </c>
       <c r="AI69" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ69" t="s">
         <v>117</v>
-      </c>
-      <c r="AP69" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ69" t="s">
-        <v>118</v>
       </c>
       <c r="AR69" t="s">
         <v>81</v>
       </c>
       <c r="AS69" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU69" t="s">
         <v>119</v>
       </c>
-      <c r="AT69" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU69" t="s">
+      <c r="AV69" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW69" t="s">
         <v>120</v>
-      </c>
-      <c r="AV69" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW69" t="s">
-        <v>121</v>
       </c>
       <c r="AX69" t="s">
         <v>79</v>
       </c>
       <c r="AY69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ69" t="s">
         <v>67</v>
@@ -6418,7 +6417,7 @@
     </row>
     <row r="70" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
         <v>59</v>
@@ -6427,64 +6426,64 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
         <v>62</v>
       </c>
       <c r="G70" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I70" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="J70" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M70" s="3" t="s">
+      <c r="N70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q70" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="N70" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q70" s="3" t="s">
+      <c r="R70" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="U70" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="R70" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="T70" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="U70" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="V70" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W70" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="X70" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG70" t="s">
         <v>74</v>
@@ -6493,37 +6492,37 @@
         <v>66</v>
       </c>
       <c r="AI70" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ70" t="s">
         <v>117</v>
-      </c>
-      <c r="AP70" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ70" t="s">
-        <v>118</v>
       </c>
       <c r="AR70" t="s">
         <v>81</v>
       </c>
       <c r="AS70" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU70" t="s">
         <v>119</v>
       </c>
-      <c r="AT70" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU70" t="s">
+      <c r="AV70" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW70" t="s">
         <v>120</v>
-      </c>
-      <c r="AV70" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW70" t="s">
-        <v>121</v>
       </c>
       <c r="AX70" t="s">
         <v>79</v>
       </c>
       <c r="AY70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ70" t="s">
         <v>67</v>
@@ -6534,7 +6533,7 @@
     </row>
     <row r="71" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>59</v>
@@ -6543,25 +6542,25 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F71" t="s">
         <v>62</v>
       </c>
       <c r="G71" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AG71" t="s">
         <v>74</v>
@@ -6570,37 +6569,37 @@
         <v>66</v>
       </c>
       <c r="AI71" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ71" t="s">
         <v>117</v>
-      </c>
-      <c r="AP71" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ71" t="s">
-        <v>118</v>
       </c>
       <c r="AR71" t="s">
         <v>81</v>
       </c>
       <c r="AS71" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU71" t="s">
         <v>119</v>
       </c>
-      <c r="AT71" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU71" t="s">
+      <c r="AV71" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW71" t="s">
         <v>120</v>
-      </c>
-      <c r="AV71" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW71" t="s">
-        <v>121</v>
       </c>
       <c r="AX71" t="s">
         <v>79</v>
       </c>
       <c r="AY71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ71" t="s">
         <v>67</v>
@@ -6611,7 +6610,7 @@
     </row>
     <row r="72" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
         <v>59</v>
@@ -6620,88 +6619,88 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E72" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
         <v>62</v>
       </c>
       <c r="G72" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J72" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="P72" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M72" s="3" t="s">
+      <c r="Q72" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="P72" s="3" t="s">
+      <c r="R72" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="X72" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T72" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="V72" s="3" t="s">
+      <c r="Y72" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AC72" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE72" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="Z72" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AB72" s="3" t="s">
+      <c r="AF72" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="AC72" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="AD72" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE72" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF72" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="AG72" t="s">
         <v>74</v>
@@ -6710,37 +6709,37 @@
         <v>66</v>
       </c>
       <c r="AI72" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ72" t="s">
         <v>117</v>
-      </c>
-      <c r="AP72" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ72" t="s">
-        <v>118</v>
       </c>
       <c r="AR72" t="s">
         <v>81</v>
       </c>
       <c r="AS72" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU72" t="s">
         <v>119</v>
       </c>
-      <c r="AT72" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU72" t="s">
+      <c r="AV72" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW72" t="s">
         <v>120</v>
-      </c>
-      <c r="AV72" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW72" t="s">
-        <v>121</v>
       </c>
       <c r="AX72" t="s">
         <v>79</v>
       </c>
       <c r="AY72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ72" t="s">
         <v>67</v>
@@ -6751,7 +6750,7 @@
     </row>
     <row r="73" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
         <v>59</v>
@@ -6760,16 +6759,16 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E73" t="s">
         <v>114</v>
-      </c>
-      <c r="E73" t="s">
-        <v>115</v>
       </c>
       <c r="F73" t="s">
         <v>62</v>
       </c>
       <c r="G73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG73" t="s">
         <v>74</v>
@@ -6778,37 +6777,37 @@
         <v>66</v>
       </c>
       <c r="AI73" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ73" t="s">
         <v>117</v>
-      </c>
-      <c r="AP73" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ73" t="s">
-        <v>118</v>
       </c>
       <c r="AR73" t="s">
         <v>81</v>
       </c>
       <c r="AS73" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU73" t="s">
         <v>119</v>
       </c>
-      <c r="AT73" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU73" t="s">
+      <c r="AV73" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW73" t="s">
         <v>120</v>
-      </c>
-      <c r="AV73" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW73" t="s">
-        <v>121</v>
       </c>
       <c r="AX73" t="s">
         <v>79</v>
       </c>
       <c r="AY73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ73" t="s">
         <v>67</v>
@@ -6819,7 +6818,7 @@
     </row>
     <row r="74" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
         <v>59</v>
@@ -6828,28 +6827,28 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F74" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I74" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J74" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG74" t="s">
         <v>74</v>
@@ -6858,37 +6857,37 @@
         <v>66</v>
       </c>
       <c r="AI74" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ74" t="s">
         <v>117</v>
-      </c>
-      <c r="AP74" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ74" t="s">
-        <v>118</v>
       </c>
       <c r="AR74" t="s">
         <v>81</v>
       </c>
       <c r="AS74" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU74" t="s">
         <v>119</v>
       </c>
-      <c r="AT74" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU74" t="s">
+      <c r="AV74" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW74" t="s">
         <v>120</v>
-      </c>
-      <c r="AV74" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW74" t="s">
-        <v>121</v>
       </c>
       <c r="AX74" t="s">
         <v>79</v>
       </c>
       <c r="AY74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ74" t="s">
         <v>67</v>
@@ -6899,7 +6898,7 @@
     </row>
     <row r="75" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
         <v>59</v>
@@ -6908,25 +6907,25 @@
         <v>3</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F75" t="s">
         <v>62</v>
       </c>
       <c r="G75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AG75" t="s">
         <v>74</v>
@@ -6935,37 +6934,37 @@
         <v>66</v>
       </c>
       <c r="AI75" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ75" t="s">
         <v>117</v>
-      </c>
-      <c r="AP75" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ75" t="s">
-        <v>118</v>
       </c>
       <c r="AR75" t="s">
         <v>81</v>
       </c>
       <c r="AS75" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU75" t="s">
         <v>119</v>
       </c>
-      <c r="AT75" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU75" t="s">
+      <c r="AV75" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW75" t="s">
         <v>120</v>
-      </c>
-      <c r="AV75" t="s">
-        <v>105</v>
-      </c>
-      <c r="AW75" t="s">
-        <v>121</v>
       </c>
       <c r="AX75" t="s">
         <v>79</v>
       </c>
       <c r="AY75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AZ75" t="s">
         <v>67</v>
@@ -6974,9 +6973,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B76" t="s">
         <v>59</v>
@@ -6985,7 +6984,7 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AZ76" t="s">
         <v>67</v>
@@ -6996,7 +6995,7 @@
     </row>
     <row r="77" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B77" t="s">
         <v>59</v>
@@ -7005,64 +7004,64 @@
         <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F77" t="s">
         <v>62</v>
       </c>
       <c r="G77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I77" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="K77" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M77" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M77" s="3" t="s">
+      <c r="N77" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="N77" s="3" t="s">
+      <c r="O77" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P77" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="O77" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P77" s="3" t="s">
+      <c r="Q77" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="R77" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="R77" s="3" t="s">
+      <c r="S77" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="S77" s="3" t="s">
+      <c r="T77" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="U77" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="T77" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="U77" s="3" t="s">
+      <c r="V77" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="W77" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="V77" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="W77" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="X77" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG77" t="s">
         <v>74</v>
@@ -7071,37 +7070,37 @@
         <v>66</v>
       </c>
       <c r="AI77" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP77" t="s">
         <v>81</v>
       </c>
       <c r="AQ77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AR77" t="s">
         <v>81</v>
       </c>
       <c r="AS77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AT77" t="s">
         <v>81</v>
       </c>
       <c r="AU77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV77" t="s">
         <v>81</v>
       </c>
       <c r="AW77" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX77" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY77" t="s">
         <v>140</v>
-      </c>
-      <c r="AX77" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY77" t="s">
-        <v>141</v>
       </c>
       <c r="AZ77" t="s">
         <v>67</v>
@@ -7112,7 +7111,7 @@
     </row>
     <row r="78" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
         <v>59</v>
@@ -7121,79 +7120,79 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
         <v>62</v>
       </c>
       <c r="G78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M78" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q78" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="N78" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q78" s="3" t="s">
-        <v>397</v>
-      </c>
       <c r="R78" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U78" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="W78" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="X78" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y78" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="V78" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="W78" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="X78" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y78" s="3" t="s">
-        <v>408</v>
-      </c>
       <c r="Z78" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA78" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AB78" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG78" t="s">
         <v>74</v>
@@ -7202,37 +7201,37 @@
         <v>66</v>
       </c>
       <c r="AI78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP78" t="s">
         <v>81</v>
       </c>
       <c r="AQ78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AR78" t="s">
         <v>81</v>
       </c>
       <c r="AS78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AT78" t="s">
         <v>81</v>
       </c>
       <c r="AU78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV78" t="s">
         <v>81</v>
       </c>
       <c r="AW78" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX78" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY78" t="s">
         <v>140</v>
-      </c>
-      <c r="AX78" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY78" t="s">
-        <v>141</v>
       </c>
       <c r="AZ78" t="s">
         <v>67</v>
@@ -7243,7 +7242,7 @@
     </row>
     <row r="79" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B79" t="s">
         <v>59</v>
@@ -7252,67 +7251,67 @@
         <v>3</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" t="s">
         <v>143</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" t="s">
         <v>144</v>
       </c>
-      <c r="G79" t="s">
-        <v>137</v>
-      </c>
-      <c r="H79" t="s">
-        <v>145</v>
-      </c>
       <c r="I79" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="K79" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M79" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="K79" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>426</v>
-      </c>
       <c r="N79" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="O79" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="O79" s="3" t="s">
+      <c r="P79" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="R79" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="P79" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q79" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="R79" s="3" t="s">
+      <c r="S79" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="S79" s="3" t="s">
+      <c r="T79" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="T79" s="3" t="s">
+      <c r="U79" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="V79" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="U79" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="V79" s="3" t="s">
+      <c r="W79" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="W79" s="3" t="s">
+      <c r="X79" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="X79" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="AG79" t="s">
         <v>74</v>
@@ -7321,38 +7320,38 @@
         <v>66</v>
       </c>
       <c r="AI79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP79" t="s">
         <v>81</v>
       </c>
       <c r="AQ79" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AR79" t="s">
         <v>79</v>
       </c>
       <c r="AS79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT79" t="s">
         <v>81</v>
       </c>
       <c r="AU79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV79" t="s">
         <v>81</v>
       </c>
       <c r="AW79" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX79" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY79" t="s">
         <v>140</v>
       </c>
-      <c r="AX79" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY79" t="s">
-        <v>141</v>
-      </c>
       <c r="AZ79" t="s">
         <v>67</v>
       </c>
@@ -7360,12 +7359,12 @@
         <v>67</v>
       </c>
       <c r="BL79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
         <v>59</v>
@@ -7374,79 +7373,79 @@
         <v>3</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E80" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80" t="s">
         <v>143</v>
       </c>
-      <c r="F80" t="s">
-        <v>144</v>
-      </c>
       <c r="G80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K80" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="S80" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="L80" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="P80" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="S80" s="3" t="s">
+      <c r="T80" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="W80" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="X80" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="T80" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="U80" s="3" t="s">
+      <c r="Y80" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="V80" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="W80" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="X80" s="3" t="s">
+      <c r="Z80" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB80" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="Y80" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="Z80" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA80" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB80" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="AG80" t="s">
         <v>74</v>
@@ -7455,38 +7454,38 @@
         <v>66</v>
       </c>
       <c r="AI80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AP80" t="s">
         <v>81</v>
       </c>
       <c r="AQ80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AR80" t="s">
         <v>79</v>
       </c>
       <c r="AS80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT80" t="s">
         <v>81</v>
       </c>
       <c r="AU80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AV80" t="s">
         <v>81</v>
       </c>
       <c r="AW80" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX80" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY80" t="s">
         <v>140</v>
       </c>
-      <c r="AX80" t="s">
-        <v>105</v>
-      </c>
-      <c r="AY80" t="s">
-        <v>141</v>
-      </c>
       <c r="AZ80" t="s">
         <v>67</v>
       </c>
@@ -7494,9 +7493,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
         <v>59</v>
@@ -7505,31 +7504,31 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I81" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K81" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="AG81" t="s">
         <v>64</v>
@@ -7559,12 +7558,12 @@
         <v>67</v>
       </c>
       <c r="BL81" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
         <v>59</v>
@@ -7573,25 +7572,25 @@
         <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
         <v>62</v>
       </c>
       <c r="G82" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I82" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>451</v>
-      </c>
       <c r="K82" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG82" t="s">
         <v>64</v>
@@ -7621,12 +7620,12 @@
         <v>67</v>
       </c>
       <c r="BL82" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
         <v>59</v>
@@ -7635,25 +7634,25 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
         <v>62</v>
       </c>
       <c r="G83" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I83" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>453</v>
-      </c>
       <c r="K83" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG83" t="s">
         <v>64</v>
@@ -7683,12 +7682,12 @@
         <v>67</v>
       </c>
       <c r="BL83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>156</v>
       </c>
       <c r="B84" t="s">
         <v>59</v>
@@ -7697,64 +7696,64 @@
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F84" t="s">
         <v>62</v>
       </c>
       <c r="G84" t="s">
+        <v>157</v>
+      </c>
+      <c r="I84" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I84" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="J84" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K84" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K84" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L84" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M84" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N84" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N84" s="3" t="s">
+      <c r="O84" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="O84" s="3" t="s">
+      <c r="P84" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="Q84" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="R84" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="R84" s="3" t="s">
+      <c r="S84" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="S84" s="3" t="s">
+      <c r="T84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="T84" s="3" t="s">
+      <c r="U84" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="U84" s="3" t="s">
+      <c r="V84" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="V84" s="3" t="s">
+      <c r="W84" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W84" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="X84" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG84" t="s">
         <v>64</v>
@@ -7787,39 +7786,39 @@
         <v>79</v>
       </c>
       <c r="BB84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BC84" t="s">
         <v>81</v>
       </c>
       <c r="BD84" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE84" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF84" t="s">
         <v>173</v>
       </c>
-      <c r="BE84" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF84" t="s">
-        <v>174</v>
-      </c>
       <c r="BG84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BI84" t="s">
         <v>79</v>
       </c>
       <c r="BJ84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BK84" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B85" t="s">
         <v>59</v>
@@ -7828,58 +7827,58 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F85" t="s">
         <v>62</v>
       </c>
       <c r="G85" t="s">
+        <v>157</v>
+      </c>
+      <c r="I85" t="s">
         <v>158</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>159</v>
       </c>
-      <c r="J85" t="s">
+      <c r="M85" t="s">
         <v>160</v>
       </c>
-      <c r="M85" t="s">
-        <v>161</v>
-      </c>
       <c r="N85" t="s">
+        <v>176</v>
+      </c>
+      <c r="O85" t="s">
         <v>177</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>178</v>
       </c>
-      <c r="P85" t="s">
+      <c r="Q85" t="s">
+        <v>164</v>
+      </c>
+      <c r="R85" t="s">
         <v>179</v>
       </c>
-      <c r="Q85" t="s">
-        <v>165</v>
-      </c>
-      <c r="R85" t="s">
+      <c r="S85" t="s">
         <v>180</v>
       </c>
-      <c r="S85" t="s">
+      <c r="T85" t="s">
         <v>181</v>
       </c>
-      <c r="T85" t="s">
+      <c r="U85" t="s">
+        <v>168</v>
+      </c>
+      <c r="V85" t="s">
+        <v>181</v>
+      </c>
+      <c r="W85" t="s">
         <v>182</v>
       </c>
-      <c r="U85" t="s">
-        <v>169</v>
-      </c>
-      <c r="V85" t="s">
-        <v>182</v>
-      </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>183</v>
-      </c>
-      <c r="X85" t="s">
-        <v>184</v>
       </c>
       <c r="AG85" t="s">
         <v>64</v>
@@ -7912,31 +7911,31 @@
         <v>79</v>
       </c>
       <c r="BB85" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BC85" t="s">
         <v>81</v>
       </c>
       <c r="BD85" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE85" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF85" t="s">
         <v>173</v>
       </c>
-      <c r="BE85" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF85" t="s">
-        <v>174</v>
-      </c>
       <c r="BG85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BI85" t="s">
         <v>79</v>
       </c>
       <c r="BJ85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BK85" t="s">
         <v>67</v>
@@ -7944,7 +7943,7 @@
     </row>
     <row r="86" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" t="s">
         <v>59</v>
@@ -7953,64 +7952,64 @@
         <v>3</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F86" t="s">
         <v>62</v>
       </c>
       <c r="G86" t="s">
+        <v>157</v>
+      </c>
+      <c r="I86" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I86" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="J86" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K86" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K86" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L86" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N86" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O86" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="O86" s="3" t="s">
+      <c r="P86" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="Q86" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="R86" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="Q86" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="R86" s="3" t="s">
+      <c r="S86" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="S86" s="3" t="s">
+      <c r="T86" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="T86" s="3" t="s">
+      <c r="U86" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V86" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="U86" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="V86" s="3" t="s">
+      <c r="W86" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="W86" s="3" t="s">
+      <c r="X86" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="X86" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="AG86" t="s">
         <v>64</v>
@@ -8019,37 +8018,37 @@
         <v>66</v>
       </c>
       <c r="AI86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP86" t="s">
         <v>79</v>
       </c>
       <c r="AQ86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AR86" t="s">
         <v>79</v>
       </c>
       <c r="AS86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AT86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AU86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AV86" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AX86" t="s">
         <v>79</v>
       </c>
       <c r="AY86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AZ86" t="s">
         <v>67</v>
@@ -8058,9 +8057,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B87" t="s">
         <v>59</v>
@@ -8069,64 +8068,64 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G87" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="N87" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I87" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L87" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M87" s="3" t="s">
+      <c r="O87" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P87" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q87" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="N87" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="P87" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q87" s="3" t="s">
+      <c r="R87" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="V87" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="W87" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="R87" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="S87" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="T87" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="U87" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="V87" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="W87" s="3" t="s">
-        <v>460</v>
-      </c>
       <c r="X87" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG87" t="s">
         <v>64</v>
@@ -8156,42 +8155,42 @@
         <v>67</v>
       </c>
       <c r="BA87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BB87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BC87" t="s">
         <v>79</v>
       </c>
       <c r="BD87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BF87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BG87" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BI87" t="s">
         <v>79</v>
       </c>
       <c r="BJ87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BK87" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
         <v>59</v>
@@ -8200,58 +8199,58 @@
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F88" t="s">
         <v>62</v>
       </c>
       <c r="G88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I88" t="s">
+        <v>211</v>
+      </c>
+      <c r="J88" t="s">
+        <v>159</v>
+      </c>
+      <c r="M88" t="s">
         <v>212</v>
       </c>
-      <c r="J88" t="s">
-        <v>160</v>
-      </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
+        <v>159</v>
+      </c>
+      <c r="O88" t="s">
         <v>213</v>
       </c>
-      <c r="N88" t="s">
-        <v>160</v>
-      </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>214</v>
       </c>
-      <c r="P88" t="s">
+      <c r="Q88" t="s">
         <v>215</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="R88" t="s">
         <v>216</v>
       </c>
-      <c r="R88" t="s">
+      <c r="S88" t="s">
         <v>217</v>
       </c>
-      <c r="S88" t="s">
+      <c r="T88" t="s">
         <v>218</v>
       </c>
-      <c r="T88" t="s">
+      <c r="U88" t="s">
         <v>219</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>220</v>
       </c>
-      <c r="V88" t="s">
+      <c r="W88" t="s">
         <v>221</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>222</v>
-      </c>
-      <c r="X88" t="s">
-        <v>223</v>
       </c>
       <c r="AG88" t="s">
         <v>64</v>
@@ -8281,42 +8280,42 @@
         <v>67</v>
       </c>
       <c r="BA88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BB88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BC88" t="s">
         <v>79</v>
       </c>
       <c r="BD88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BF88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BG88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BI88" t="s">
         <v>79</v>
       </c>
       <c r="BJ88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BK88" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B89" t="s">
         <v>59</v>
@@ -8325,67 +8324,67 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F89" t="s">
         <v>62</v>
       </c>
       <c r="G89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H89" t="s">
+        <v>223</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M89" s="3" t="s">
+      <c r="O89" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q89" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>459</v>
-      </c>
       <c r="R89" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S89" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="T89" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T89" s="3" t="s">
+      <c r="U89" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="V89" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="V89" s="3" t="s">
+      <c r="W89" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="W89" s="3" t="s">
+      <c r="X89" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="X89" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="AG89" t="s">
         <v>64</v>
@@ -8415,42 +8414,42 @@
         <v>67</v>
       </c>
       <c r="BA89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BB89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BC89" t="s">
         <v>81</v>
       </c>
       <c r="BD89" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BE89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BF89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BG89" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BI89" t="s">
         <v>79</v>
       </c>
       <c r="BJ89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BK89" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B90" t="s">
         <v>59</v>
@@ -8459,64 +8458,64 @@
         <v>3</v>
       </c>
       <c r="D90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F90" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G90" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="I90" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="J90" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K90" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="K90" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="L90" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N90" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q90" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="Q90" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="R90" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="S90" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V90" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="T90" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="U90" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="V90" s="3" t="s">
+      <c r="W90" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="W90" s="3" t="s">
-        <v>456</v>
-      </c>
       <c r="X90" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG90" t="s">
         <v>64</v>
@@ -8549,31 +8548,31 @@
         <v>79</v>
       </c>
       <c r="BB90" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BC90" t="s">
         <v>79</v>
       </c>
       <c r="BD90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BF90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BG90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BI90" t="s">
         <v>79</v>
       </c>
       <c r="BJ90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BK90" t="s">
         <v>67</v>
@@ -8581,7 +8580,7 @@
     </row>
     <row r="91" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B91" t="s">
         <v>59</v>
@@ -8590,64 +8589,64 @@
         <v>3</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F91" t="s">
         <v>62</v>
       </c>
       <c r="G91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I91" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M91" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M91" s="3" t="s">
+      <c r="N91" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="R91" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="S91" s="3" t="s">
+      <c r="T91" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="W91" s="3" t="s">
+      <c r="X91" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="AG91" t="s">
         <v>64</v>
@@ -8656,37 +8655,37 @@
         <v>66</v>
       </c>
       <c r="AI91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AP91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR91" t="s">
         <v>79</v>
       </c>
       <c r="AS91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AT91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AU91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AV91" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX91" t="s">
         <v>79</v>
       </c>
       <c r="AY91" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AZ91" t="s">
         <v>67</v>
@@ -8695,9 +8694,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B92" t="s">
         <v>59</v>
@@ -8706,61 +8705,61 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
         <v>62</v>
       </c>
       <c r="G92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I92" t="s">
+        <v>211</v>
+      </c>
+      <c r="J92" t="s">
+        <v>159</v>
+      </c>
+      <c r="M92" t="s">
         <v>212</v>
       </c>
-      <c r="J92" t="s">
-        <v>160</v>
-      </c>
-      <c r="M92" t="s">
-        <v>213</v>
-      </c>
       <c r="N92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O92" t="s">
+        <v>235</v>
+      </c>
+      <c r="P92" t="s">
         <v>236</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
+        <v>215</v>
+      </c>
+      <c r="R92" t="s">
         <v>237</v>
       </c>
-      <c r="Q92" t="s">
-        <v>216</v>
-      </c>
-      <c r="R92" t="s">
+      <c r="S92" t="s">
         <v>238</v>
       </c>
-      <c r="S92" t="s">
+      <c r="T92" t="s">
         <v>239</v>
       </c>
-      <c r="T92" t="s">
+      <c r="U92" t="s">
+        <v>219</v>
+      </c>
+      <c r="V92" t="s">
         <v>240</v>
       </c>
-      <c r="U92" t="s">
-        <v>220</v>
-      </c>
-      <c r="V92" t="s">
-        <v>241</v>
-      </c>
       <c r="W92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X92" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG92" t="s">
         <v>64</v>
@@ -8790,42 +8789,42 @@
         <v>67</v>
       </c>
       <c r="BA92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BB92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BC92" t="s">
         <v>81</v>
       </c>
       <c r="BD92" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BE92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BF92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BG92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BI92" t="s">
         <v>79</v>
       </c>
       <c r="BJ92" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BK92" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
         <v>59</v>
@@ -8834,58 +8833,58 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" t="s">
         <v>62</v>
       </c>
       <c r="G93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I93" t="s">
+        <v>211</v>
+      </c>
+      <c r="J93" t="s">
+        <v>159</v>
+      </c>
+      <c r="M93" t="s">
         <v>212</v>
       </c>
-      <c r="J93" t="s">
-        <v>160</v>
-      </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
+        <v>241</v>
+      </c>
+      <c r="O93" t="s">
+        <v>242</v>
+      </c>
+      <c r="P93" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>215</v>
+      </c>
+      <c r="R93" t="s">
+        <v>244</v>
+      </c>
+      <c r="S93" t="s">
+        <v>245</v>
+      </c>
+      <c r="T93" t="s">
         <v>213</v>
       </c>
-      <c r="N93" t="s">
-        <v>242</v>
-      </c>
-      <c r="O93" t="s">
-        <v>243</v>
-      </c>
-      <c r="P93" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>216</v>
-      </c>
-      <c r="R93" t="s">
-        <v>245</v>
-      </c>
-      <c r="S93" t="s">
+      <c r="U93" t="s">
+        <v>219</v>
+      </c>
+      <c r="V93" t="s">
         <v>246</v>
       </c>
-      <c r="T93" t="s">
-        <v>214</v>
-      </c>
-      <c r="U93" t="s">
-        <v>220</v>
-      </c>
-      <c r="V93" t="s">
+      <c r="W93" t="s">
         <v>247</v>
       </c>
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>248</v>
-      </c>
-      <c r="X93" t="s">
-        <v>249</v>
       </c>
       <c r="AG93" t="s">
         <v>64</v>
@@ -8918,39 +8917,39 @@
         <v>79</v>
       </c>
       <c r="BB93" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BC93" t="s">
         <v>79</v>
       </c>
       <c r="BD93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BE93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BF93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BG93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH93" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BI93" t="s">
         <v>79</v>
       </c>
       <c r="BJ93" t="s">
+        <v>249</v>
+      </c>
+      <c r="BK93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>250</v>
-      </c>
-      <c r="BK93" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>251</v>
       </c>
       <c r="B94" t="s">
         <v>59</v>
@@ -8959,64 +8958,64 @@
         <v>3</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E94" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F94" t="s">
         <v>62</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I94" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M94" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q94" s="3" t="s">
+      <c r="R94" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="W94" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="W94" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="X94" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG94" t="s">
         <v>64</v>
@@ -9046,42 +9045,42 @@
         <v>67</v>
       </c>
       <c r="BA94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BB94" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BC94" t="s">
         <v>79</v>
       </c>
       <c r="BD94" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE94" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF94" t="s">
         <v>255</v>
       </c>
-      <c r="BE94" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF94" t="s">
-        <v>256</v>
-      </c>
       <c r="BG94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH94" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BI94" t="s">
         <v>79</v>
       </c>
       <c r="BJ94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BK94" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B95" t="s">
         <v>59</v>
@@ -9090,64 +9089,64 @@
         <v>3</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F95" t="s">
         <v>62</v>
       </c>
       <c r="G95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M95" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="N95" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="N95" s="3" t="s">
+      <c r="O95" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="O95" s="3" t="s">
+      <c r="P95" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q95" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="P95" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q95" s="3" t="s">
+      <c r="R95" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="S95" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="R95" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="S95" s="3" t="s">
+      <c r="T95" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="U95" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="T95" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="U95" s="3" t="s">
+      <c r="V95" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="V95" s="3" t="s">
+      <c r="W95" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="W95" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="X95" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AG95" t="s">
         <v>64</v>
@@ -9180,39 +9179,39 @@
         <v>79</v>
       </c>
       <c r="BB95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BC95" t="s">
         <v>79</v>
       </c>
       <c r="BD95" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE95" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF95" t="s">
         <v>255</v>
       </c>
-      <c r="BE95" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF95" t="s">
-        <v>256</v>
-      </c>
       <c r="BG95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BI95" t="s">
         <v>79</v>
       </c>
       <c r="BJ95" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BK95" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B96" t="s">
         <v>59</v>
@@ -9221,64 +9220,64 @@
         <v>3</v>
       </c>
       <c r="D96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I96" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="M96" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="J96" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="M96" s="3" t="s">
+      <c r="N96" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q96" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="N96" s="3" t="s">
+      <c r="R96" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="T96" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="O96" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="P96" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q96" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="R96" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="S96" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="T96" s="3" t="s">
+      <c r="U96" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="W96" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="U96" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="V96" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="W96" s="3" t="s">
-        <v>481</v>
-      </c>
       <c r="X96" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AG96" t="s">
         <v>64</v>
@@ -9308,42 +9307,42 @@
         <v>67</v>
       </c>
       <c r="BA96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BB96" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BC96" t="s">
         <v>79</v>
       </c>
       <c r="BD96" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE96" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF96" t="s">
         <v>255</v>
       </c>
-      <c r="BE96" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF96" t="s">
-        <v>256</v>
-      </c>
       <c r="BG96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH96" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BI96" t="s">
         <v>79</v>
       </c>
       <c r="BJ96" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BK96" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
         <v>59</v>
@@ -9352,64 +9351,64 @@
         <v>3</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P97" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="S97" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="Q97" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="S97" s="3" t="s">
+      <c r="T97" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="T97" s="3" t="s">
-        <v>479</v>
-      </c>
       <c r="U97" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="X97" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AG97" t="s">
         <v>64</v>
@@ -9442,39 +9441,39 @@
         <v>79</v>
       </c>
       <c r="BB97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="BC97" t="s">
         <v>79</v>
       </c>
       <c r="BD97" t="s">
+        <v>254</v>
+      </c>
+      <c r="BE97" t="s">
+        <v>104</v>
+      </c>
+      <c r="BF97" t="s">
         <v>255</v>
       </c>
-      <c r="BE97" t="s">
-        <v>105</v>
-      </c>
-      <c r="BF97" t="s">
-        <v>256</v>
-      </c>
       <c r="BG97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BH97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BI97" t="s">
         <v>79</v>
       </c>
       <c r="BJ97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BK97" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B98" t="s">
         <v>59</v>
@@ -9483,19 +9482,19 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F98" t="s">
         <v>62</v>
       </c>
       <c r="G98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG98" t="s">
         <v>74</v>
@@ -9528,39 +9527,39 @@
         <v>81</v>
       </c>
       <c r="BB98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BC98" t="s">
         <v>79</v>
       </c>
       <c r="BD98" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BE98" t="s">
         <v>81</v>
       </c>
       <c r="BF98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BG98" t="s">
         <v>81</v>
       </c>
       <c r="BH98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BI98" t="s">
         <v>81</v>
       </c>
       <c r="BJ98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BK98" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B99" t="s">
         <v>59</v>
@@ -9569,19 +9568,19 @@
         <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F99" t="s">
         <v>62</v>
       </c>
       <c r="G99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG99" t="s">
         <v>74</v>
@@ -9614,42 +9613,42 @@
         <v>81</v>
       </c>
       <c r="BB99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BC99" t="s">
         <v>79</v>
       </c>
       <c r="BD99" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="BE99" t="s">
         <v>81</v>
       </c>
       <c r="BF99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BG99" t="s">
         <v>81</v>
       </c>
       <c r="BH99" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BI99" t="s">
         <v>81</v>
       </c>
       <c r="BJ99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BK99" t="s">
         <v>67</v>
       </c>
       <c r="BL99" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B100" t="s">
         <v>59</v>
@@ -9658,16 +9657,16 @@
         <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F100" t="s">
         <v>62</v>
       </c>
       <c r="G100" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG100" t="s">
         <v>74</v>
@@ -9700,42 +9699,42 @@
         <v>81</v>
       </c>
       <c r="BB100" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BC100" t="s">
         <v>79</v>
       </c>
       <c r="BD100" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BE100" t="s">
         <v>81</v>
       </c>
       <c r="BF100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BG100" t="s">
         <v>81</v>
       </c>
       <c r="BH100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BI100" t="s">
         <v>81</v>
       </c>
       <c r="BJ100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BK100" t="s">
         <v>67</v>
       </c>
       <c r="BL100" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
         <v>59</v>
@@ -9744,19 +9743,19 @@
         <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E101" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F101" t="s">
         <v>62</v>
       </c>
       <c r="G101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG101" t="s">
         <v>74</v>
@@ -9789,42 +9788,42 @@
         <v>81</v>
       </c>
       <c r="BB101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BC101" t="s">
         <v>79</v>
       </c>
       <c r="BD101" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BE101" t="s">
         <v>81</v>
       </c>
       <c r="BF101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BG101" t="s">
         <v>81</v>
       </c>
       <c r="BH101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BI101" t="s">
         <v>81</v>
       </c>
       <c r="BJ101" t="s">
+        <v>275</v>
+      </c>
+      <c r="BK101" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL101" t="s">
         <v>276</v>
       </c>
-      <c r="BK101" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL101" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="102" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B102" t="s">
         <v>59</v>
@@ -9833,28 +9832,28 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F102" t="s">
         <v>62</v>
       </c>
       <c r="G102" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H102" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG102" t="s">
         <v>74</v>
@@ -9887,42 +9886,42 @@
         <v>81</v>
       </c>
       <c r="BB102" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BC102" t="s">
         <v>79</v>
       </c>
       <c r="BD102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BE102" t="s">
         <v>81</v>
       </c>
       <c r="BF102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BG102" t="s">
         <v>81</v>
       </c>
       <c r="BH102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BI102" t="s">
         <v>81</v>
       </c>
       <c r="BJ102" t="s">
+        <v>275</v>
+      </c>
+      <c r="BK102" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL102" t="s">
         <v>276</v>
       </c>
-      <c r="BK102" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL102" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="103" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B103" t="s">
         <v>59</v>
@@ -9931,28 +9930,28 @@
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F103" t="s">
         <v>62</v>
       </c>
       <c r="G103" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H103" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AG103" t="s">
         <v>74</v>
@@ -9985,42 +9984,42 @@
         <v>81</v>
       </c>
       <c r="BB103" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BC103" t="s">
         <v>79</v>
       </c>
       <c r="BD103" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BE103" t="s">
         <v>81</v>
       </c>
       <c r="BF103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BG103" t="s">
         <v>81</v>
       </c>
       <c r="BH103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="BI103" t="s">
         <v>81</v>
       </c>
       <c r="BJ103" t="s">
+        <v>275</v>
+      </c>
+      <c r="BK103" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL103" t="s">
         <v>276</v>
       </c>
-      <c r="BK103" t="s">
-        <v>67</v>
-      </c>
-      <c r="BL103" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="104" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B104" t="s">
         <v>59</v>
@@ -10029,16 +10028,16 @@
         <v>3</v>
       </c>
       <c r="D104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F104" t="s">
         <v>62</v>
       </c>
       <c r="G104" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG104" t="s">
         <v>64</v>
@@ -10071,39 +10070,39 @@
         <v>81</v>
       </c>
       <c r="BB104" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BC104" t="s">
         <v>81</v>
       </c>
       <c r="BD104" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="BE104" t="s">
         <v>81</v>
       </c>
       <c r="BF104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BG104" t="s">
         <v>81</v>
       </c>
       <c r="BH104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BI104" t="s">
         <v>81</v>
       </c>
       <c r="BK104" t="s">
+        <v>281</v>
+      </c>
+      <c r="BL104" t="s">
         <v>282</v>
       </c>
-      <c r="BL104" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B105" t="s">
         <v>59</v>
@@ -10112,16 +10111,16 @@
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E105" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F105" t="s">
         <v>62</v>
       </c>
       <c r="G105" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG105" t="s">
         <v>74</v>
@@ -10154,25 +10153,25 @@
         <v>81</v>
       </c>
       <c r="BB105" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="BC105" t="s">
         <v>79</v>
       </c>
       <c r="BD105" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="BE105" t="s">
         <v>81</v>
       </c>
       <c r="BF105" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BG105" t="s">
         <v>81</v>
       </c>
       <c r="BH105" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BI105" t="s">
         <v>81</v>
@@ -10181,12 +10180,12 @@
         <v>67</v>
       </c>
       <c r="BL105" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B106" t="s">
         <v>59</v>
@@ -10195,31 +10194,31 @@
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E106" t="s">
+        <v>285</v>
+      </c>
+      <c r="F106" t="s">
         <v>286</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>287</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>288</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>289</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>290</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>291</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>292</v>
-      </c>
-      <c r="L106" t="s">
-        <v>293</v>
       </c>
       <c r="AG106" t="s">
         <v>64</v>
@@ -10228,37 +10227,37 @@
         <v>66</v>
       </c>
       <c r="AI106" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ106" t="s">
         <v>294</v>
       </c>
-      <c r="AP106" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ106" t="s">
+      <c r="AR106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS106" t="s">
         <v>295</v>
       </c>
-      <c r="AR106" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS106" t="s">
+      <c r="AT106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU106" t="s">
         <v>296</v>
       </c>
-      <c r="AT106" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU106" t="s">
-        <v>297</v>
-      </c>
       <c r="AV106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AX106" t="s">
         <v>76</v>
       </c>
       <c r="AY106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AZ106" t="s">
         <v>83</v>
@@ -10269,7 +10268,7 @@
     </row>
     <row r="107" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B107" t="s">
         <v>59</v>
@@ -10278,31 +10277,31 @@
         <v>3</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E107" t="s">
+        <v>285</v>
+      </c>
+      <c r="F107" t="s">
         <v>286</v>
       </c>
-      <c r="F107" t="s">
-        <v>287</v>
-      </c>
       <c r="G107" t="s">
+        <v>298</v>
+      </c>
+      <c r="H107" t="s">
+        <v>288</v>
+      </c>
+      <c r="I107" t="s">
         <v>299</v>
       </c>
-      <c r="H107" t="s">
-        <v>289</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>300</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>301</v>
       </c>
-      <c r="K107" t="s">
+      <c r="L107" t="s">
         <v>302</v>
-      </c>
-      <c r="L107" t="s">
-        <v>303</v>
       </c>
       <c r="AG107" t="s">
         <v>64</v>
@@ -10311,37 +10310,37 @@
         <v>66</v>
       </c>
       <c r="AI107" t="s">
+        <v>293</v>
+      </c>
+      <c r="AP107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ107" t="s">
         <v>294</v>
       </c>
-      <c r="AP107" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ107" t="s">
+      <c r="AR107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS107" t="s">
         <v>295</v>
       </c>
-      <c r="AR107" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS107" t="s">
+      <c r="AT107" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU107" t="s">
         <v>296</v>
       </c>
-      <c r="AT107" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU107" t="s">
-        <v>297</v>
-      </c>
       <c r="AV107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW107" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AX107" t="s">
         <v>76</v>
       </c>
       <c r="AY107" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AZ107" t="s">
         <v>83</v>
@@ -10352,7 +10351,7 @@
     </row>
     <row r="108" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B108" t="s">
         <v>59</v>
@@ -10361,43 +10360,43 @@
         <v>3</v>
       </c>
       <c r="D108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F108" t="s">
         <v>62</v>
       </c>
       <c r="G108" t="s">
+        <v>304</v>
+      </c>
+      <c r="H108" t="s">
         <v>305</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>306</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>307</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>308</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>309</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>310</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>311</v>
       </c>
-      <c r="N108" t="s">
+      <c r="O108" t="s">
         <v>312</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
         <v>313</v>
-      </c>
-      <c r="P108" t="s">
-        <v>314</v>
       </c>
       <c r="AG108" t="s">
         <v>74</v>
@@ -10406,37 +10405,37 @@
         <v>66</v>
       </c>
       <c r="AI108" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ108" t="s">
         <v>315</v>
       </c>
-      <c r="AP108" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ108" t="s">
+      <c r="AR108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS108" t="s">
         <v>316</v>
       </c>
-      <c r="AR108" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS108" t="s">
+      <c r="AT108" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU108" t="s">
         <v>317</v>
       </c>
-      <c r="AT108" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU108" t="s">
-        <v>318</v>
-      </c>
       <c r="AV108" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW108" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX108" t="s">
         <v>76</v>
       </c>
       <c r="AY108" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AZ108" t="s">
         <v>83</v>
@@ -10447,7 +10446,7 @@
     </row>
     <row r="109" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
         <v>59</v>
@@ -10456,49 +10455,49 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F109" t="s">
         <v>62</v>
       </c>
       <c r="G109" t="s">
+        <v>319</v>
+      </c>
+      <c r="H109" t="s">
+        <v>305</v>
+      </c>
+      <c r="I109" t="s">
         <v>320</v>
       </c>
-      <c r="H109" t="s">
-        <v>306</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
+        <v>159</v>
+      </c>
+      <c r="M109" t="s">
         <v>321</v>
       </c>
-      <c r="J109" t="s">
-        <v>160</v>
-      </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>322</v>
       </c>
-      <c r="N109" t="s">
+      <c r="O109" t="s">
+        <v>205</v>
+      </c>
+      <c r="P109" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q109" t="s">
         <v>323</v>
       </c>
-      <c r="O109" t="s">
-        <v>206</v>
-      </c>
-      <c r="P109" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q109" t="s">
+      <c r="R109" t="s">
         <v>324</v>
       </c>
-      <c r="R109" t="s">
+      <c r="S109" t="s">
         <v>325</v>
       </c>
-      <c r="S109" t="s">
+      <c r="T109" t="s">
         <v>326</v>
-      </c>
-      <c r="T109" t="s">
-        <v>327</v>
       </c>
       <c r="AG109" t="s">
         <v>74</v>
@@ -10507,37 +10506,37 @@
         <v>66</v>
       </c>
       <c r="AI109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AP109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AQ109" t="s">
+        <v>315</v>
+      </c>
+      <c r="AR109" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS109" t="s">
         <v>316</v>
       </c>
-      <c r="AR109" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS109" t="s">
+      <c r="AT109" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU109" t="s">
         <v>317</v>
       </c>
-      <c r="AT109" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU109" t="s">
-        <v>318</v>
-      </c>
       <c r="AV109" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW109" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX109" t="s">
         <v>76</v>
       </c>
       <c r="AY109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AZ109" t="s">
         <v>83</v>
@@ -10548,7 +10547,7 @@
     </row>
     <row r="110" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B110" t="s">
         <v>59</v>
@@ -10557,37 +10556,37 @@
         <v>3</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F110" t="s">
         <v>62</v>
       </c>
       <c r="G110" t="s">
+        <v>304</v>
+      </c>
+      <c r="H110" t="s">
         <v>305</v>
       </c>
-      <c r="H110" t="s">
-        <v>306</v>
-      </c>
       <c r="I110" t="s">
+        <v>327</v>
+      </c>
+      <c r="M110" t="s">
         <v>328</v>
       </c>
-      <c r="M110" t="s">
+      <c r="Q110" t="s">
         <v>329</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="U110" t="s">
         <v>330</v>
       </c>
-      <c r="U110" t="s">
+      <c r="Y110" t="s">
         <v>331</v>
       </c>
-      <c r="Y110" t="s">
+      <c r="AF110" t="s">
         <v>332</v>
-      </c>
-      <c r="AF110" t="s">
-        <v>333</v>
       </c>
       <c r="AG110" t="s">
         <v>74</v>
@@ -10596,37 +10595,37 @@
         <v>66</v>
       </c>
       <c r="AI110" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ110" t="s">
         <v>315</v>
       </c>
-      <c r="AP110" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ110" t="s">
+      <c r="AR110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS110" t="s">
         <v>316</v>
       </c>
-      <c r="AR110" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS110" t="s">
+      <c r="AT110" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU110" t="s">
         <v>317</v>
       </c>
-      <c r="AT110" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU110" t="s">
-        <v>318</v>
-      </c>
       <c r="AV110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW110" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX110" t="s">
         <v>76</v>
       </c>
       <c r="AY110" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AZ110" t="s">
         <v>83</v>
@@ -10637,7 +10636,7 @@
     </row>
     <row r="111" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B111" t="s">
         <v>59</v>
@@ -10646,61 +10645,61 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E111" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F111" t="s">
         <v>62</v>
       </c>
       <c r="G111" t="s">
+        <v>333</v>
+      </c>
+      <c r="H111" t="s">
+        <v>305</v>
+      </c>
+      <c r="I111" t="s">
         <v>334</v>
       </c>
-      <c r="H111" t="s">
-        <v>306</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="J111" t="s">
+        <v>159</v>
+      </c>
+      <c r="M111" t="s">
         <v>335</v>
       </c>
-      <c r="J111" t="s">
-        <v>160</v>
-      </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>336</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>337</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q111" t="s">
         <v>338</v>
       </c>
-      <c r="P111" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q111" t="s">
+      <c r="R111" t="s">
+        <v>181</v>
+      </c>
+      <c r="S111" t="s">
+        <v>308</v>
+      </c>
+      <c r="T111" t="s">
+        <v>214</v>
+      </c>
+      <c r="U111" t="s">
         <v>339</v>
       </c>
-      <c r="R111" t="s">
-        <v>182</v>
-      </c>
-      <c r="S111" t="s">
-        <v>309</v>
-      </c>
-      <c r="T111" t="s">
-        <v>215</v>
-      </c>
-      <c r="U111" t="s">
+      <c r="V111" t="s">
+        <v>322</v>
+      </c>
+      <c r="W111" t="s">
         <v>340</v>
       </c>
-      <c r="V111" t="s">
-        <v>323</v>
-      </c>
-      <c r="W111" t="s">
-        <v>341</v>
-      </c>
       <c r="X111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG111" t="s">
         <v>74</v>
@@ -10709,37 +10708,37 @@
         <v>66</v>
       </c>
       <c r="AI111" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ111" t="s">
         <v>315</v>
       </c>
-      <c r="AP111" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ111" t="s">
+      <c r="AR111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS111" t="s">
         <v>316</v>
       </c>
-      <c r="AR111" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS111" t="s">
+      <c r="AT111" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU111" t="s">
         <v>317</v>
       </c>
-      <c r="AT111" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU111" t="s">
-        <v>318</v>
-      </c>
       <c r="AV111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW111" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX111" t="s">
         <v>76</v>
       </c>
       <c r="AY111" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AZ111" t="s">
         <v>83</v>
@@ -10750,7 +10749,7 @@
     </row>
     <row r="112" spans="1:64" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B112" t="s">
         <v>59</v>
@@ -10759,49 +10758,49 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F112" t="s">
         <v>62</v>
       </c>
       <c r="G112" t="s">
+        <v>341</v>
+      </c>
+      <c r="H112" t="s">
+        <v>305</v>
+      </c>
+      <c r="I112" t="s">
         <v>342</v>
       </c>
-      <c r="H112" t="s">
-        <v>306</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
+        <v>159</v>
+      </c>
+      <c r="M112" t="s">
         <v>343</v>
       </c>
-      <c r="J112" t="s">
-        <v>160</v>
-      </c>
-      <c r="M112" t="s">
+      <c r="N112" t="s">
         <v>344</v>
       </c>
-      <c r="N112" t="s">
+      <c r="O112" t="s">
         <v>345</v>
       </c>
-      <c r="O112" t="s">
+      <c r="P112" t="s">
         <v>346</v>
       </c>
-      <c r="P112" t="s">
+      <c r="Q112" t="s">
         <v>347</v>
       </c>
-      <c r="Q112" t="s">
+      <c r="R112" t="s">
         <v>348</v>
       </c>
-      <c r="R112" t="s">
+      <c r="S112" t="s">
         <v>349</v>
       </c>
-      <c r="S112" t="s">
+      <c r="T112" t="s">
         <v>350</v>
-      </c>
-      <c r="T112" t="s">
-        <v>351</v>
       </c>
       <c r="AG112" t="s">
         <v>74</v>
@@ -10810,37 +10809,37 @@
         <v>66</v>
       </c>
       <c r="AI112" t="s">
+        <v>314</v>
+      </c>
+      <c r="AP112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ112" t="s">
         <v>315</v>
       </c>
-      <c r="AP112" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ112" t="s">
+      <c r="AR112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS112" t="s">
         <v>316</v>
       </c>
-      <c r="AR112" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS112" t="s">
+      <c r="AT112" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU112" t="s">
         <v>317</v>
       </c>
-      <c r="AT112" t="s">
-        <v>105</v>
-      </c>
-      <c r="AU112" t="s">
-        <v>318</v>
-      </c>
       <c r="AV112" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AW112" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AX112" t="s">
         <v>76</v>
       </c>
       <c r="AY112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AZ112" t="s">
         <v>83</v>
@@ -10850,13 +10849,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL112" xr:uid="{84497015-98EC-4B18-BC6B-B2D6C1A2C43D}">
-    <filterColumn colId="33">
-      <filters>
-        <filter val="Yes"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BL112" xr:uid="{84497015-98EC-4B18-BC6B-B2D6C1A2C43D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10876,202 +10869,202 @@
         <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="Q1" s="3" t="s">
-        <v>362</v>
-      </c>
       <c r="R1" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="H2" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="H3" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="H4" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>354</v>
-      </c>
       <c r="K4" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="T4" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="V4" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="W4" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/distiller_cross.xlsx
+++ b/datasets/distiller_cross.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DE6CE7C5-01E7-467C-8AD7-C97CD92E63DE}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{132760FD-D63B-49DD-9767-7F4E9F999446}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BL$112</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BM$112</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2875" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="487">
   <si>
     <t>Refid</t>
   </si>
@@ -1474,6 +1474,18 @@
   </si>
   <si>
     <t>&gt;=3 vs &lt;= 3 Miles From Nearest Swine CAFO</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -1848,20 +1860,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BL112"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:G55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="5.25" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.08203125" customWidth="1"/>
+    <col min="8" max="64" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:65" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2054,8 +2069,11 @@
       <c r="BL1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2140,8 +2158,11 @@
       <c r="BK2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM2" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2226,8 +2247,11 @@
       <c r="BK3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM3" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2312,8 +2336,11 @@
       <c r="BK4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM4" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2398,8 +2425,11 @@
       <c r="BK5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM5" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2484,8 +2514,11 @@
       <c r="BK6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM6" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2570,8 +2603,11 @@
       <c r="BK7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM7" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2656,8 +2692,11 @@
       <c r="BK8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM8" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2733,8 +2772,11 @@
       <c r="BK9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM9" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2810,8 +2852,11 @@
       <c r="BK10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM10" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2887,8 +2932,11 @@
       <c r="BK11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM11" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2937,8 +2985,11 @@
       <c r="BK12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM12" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2984,8 +3035,11 @@
       <c r="BK13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM13" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3034,8 +3088,11 @@
       <c r="BK14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM14" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3084,8 +3141,11 @@
       <c r="BK15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM15" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3134,8 +3194,11 @@
       <c r="BK16" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM16" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -3181,8 +3244,11 @@
       <c r="BK17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM17" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3228,8 +3294,11 @@
       <c r="BK18" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM18" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3275,8 +3344,11 @@
       <c r="BK19" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM19" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3322,8 +3394,11 @@
       <c r="BK20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM20" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3369,8 +3444,11 @@
       <c r="BK21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM21" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3416,8 +3494,11 @@
       <c r="BK22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM22" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3463,8 +3544,11 @@
       <c r="BK23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM23" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3510,8 +3594,11 @@
       <c r="BK24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM24" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3557,8 +3644,11 @@
       <c r="BK25" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM25" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3604,8 +3694,11 @@
       <c r="BK26" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM26" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3690,8 +3783,11 @@
       <c r="BK27" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM27" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3776,8 +3872,11 @@
       <c r="BK28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM28" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3823,8 +3922,11 @@
       <c r="BK29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM29" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3870,8 +3972,11 @@
       <c r="BK30" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM30" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3917,8 +4022,11 @@
       <c r="BK31" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM31" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -3964,8 +4072,11 @@
       <c r="BK32" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="33" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM32" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4011,8 +4122,11 @@
       <c r="BK33" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM33" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4058,8 +4172,11 @@
       <c r="BK34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM34" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -4105,8 +4222,11 @@
       <c r="BK35" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM35" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -4152,8 +4272,11 @@
       <c r="BK36" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM36" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -4199,8 +4322,11 @@
       <c r="BK37" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM37" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -4249,8 +4375,11 @@
       <c r="BK38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM38" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -4296,8 +4425,11 @@
       <c r="BK39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM39" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -4346,8 +4478,11 @@
       <c r="BK40" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="41" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM40" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -4396,8 +4531,11 @@
       <c r="BK41" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM41" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -4443,8 +4581,11 @@
       <c r="BK42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM42" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -4490,8 +4631,11 @@
       <c r="BK43" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM43" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="44" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4537,8 +4681,11 @@
       <c r="BK44" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM44" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -4584,8 +4731,11 @@
       <c r="BK45" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="46" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM45" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -4631,8 +4781,11 @@
       <c r="BK46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM46" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -4708,8 +4861,11 @@
       <c r="BK47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM47" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4785,8 +4941,11 @@
       <c r="BK48" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM48" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="49" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -4865,8 +5024,11 @@
       <c r="BK49" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="50" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM49" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -4945,8 +5107,11 @@
       <c r="BK50" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM50" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5031,8 +5196,11 @@
       <c r="BK51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM51" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5117,8 +5285,11 @@
       <c r="BK52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM52" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5167,8 +5338,11 @@
       <c r="BK53" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM53" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5253,8 +5427,11 @@
       <c r="BK54" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM54" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="55" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -5300,8 +5477,11 @@
       <c r="BK55" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM55" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="56" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -5377,8 +5557,11 @@
       <c r="BK56" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="57" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM56" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -5445,8 +5628,11 @@
       <c r="BK57" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="58" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5513,8 +5699,11 @@
       <c r="BK58" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="59" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM58" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="59" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -5581,8 +5770,11 @@
       <c r="BK59" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="60" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM59" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -5649,8 +5841,11 @@
       <c r="BK60" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="61" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -5717,8 +5912,11 @@
       <c r="BK61" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="62" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM61" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -5785,8 +5983,11 @@
       <c r="BK62" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM62" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -5853,8 +6054,11 @@
       <c r="BK63" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="BM63" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -5921,8 +6125,11 @@
       <c r="BK64" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="65" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM64" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="65" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -6001,8 +6208,11 @@
       <c r="BK65" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM65" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -6117,8 +6327,11 @@
       <c r="BK66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM66" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -6197,8 +6410,11 @@
       <c r="BK67" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM67" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -6337,8 +6553,11 @@
       <c r="BK68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM68" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -6414,8 +6633,11 @@
       <c r="BK69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM69" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -6530,8 +6752,11 @@
       <c r="BK70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM70" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="71" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -6607,8 +6832,11 @@
       <c r="BK71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM71" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -6747,8 +6975,11 @@
       <c r="BK72" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="73" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM72" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -6815,8 +7046,11 @@
       <c r="BK73" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM73" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -6895,8 +7129,11 @@
       <c r="BK74" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="75" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM74" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -6972,8 +7209,11 @@
       <c r="BK75" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="76" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM75" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -6992,8 +7232,11 @@
       <c r="BK76" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="77" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM76" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="77" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -7108,8 +7351,11 @@
       <c r="BK77" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="78" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM77" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="78" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -7239,8 +7485,11 @@
       <c r="BK78" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="79" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM78" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -7361,8 +7610,11 @@
       <c r="BL79" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="80" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM79" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -7492,8 +7744,11 @@
       <c r="BK80" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="81" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM80" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="81" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -7560,8 +7815,11 @@
       <c r="BL81" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM81" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="82" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -7622,8 +7880,11 @@
       <c r="BL82" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="83" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM82" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="83" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -7684,8 +7945,11 @@
       <c r="BL83" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="84" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM83" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="84" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -7815,8 +8079,11 @@
       <c r="BK84" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="85" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM84" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="85" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>155</v>
       </c>
@@ -7940,8 +8207,11 @@
       <c r="BK85" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="86" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM85" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="86" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -8056,8 +8326,11 @@
       <c r="BK86" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="87" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM86" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="87" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -8187,8 +8460,11 @@
       <c r="BK87" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="88" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM87" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>155</v>
       </c>
@@ -8312,8 +8588,11 @@
       <c r="BK88" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="89" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM88" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="89" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -8446,8 +8725,11 @@
       <c r="BK89" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="90" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM89" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="90" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -8577,8 +8859,11 @@
       <c r="BK90" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="91" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM90" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="91" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -8693,8 +8978,11 @@
       <c r="BK91" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="92" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM91" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="92" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -8821,8 +9109,11 @@
       <c r="BK92" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="93" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM92" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -8946,8 +9237,11 @@
       <c r="BK93" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="94" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM93" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="94" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -9077,8 +9371,11 @@
       <c r="BK94" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="95" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM94" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>250</v>
       </c>
@@ -9208,8 +9505,11 @@
       <c r="BK95" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="96" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM95" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -9339,8 +9639,11 @@
       <c r="BK96" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="97" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM96" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="97" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>250</v>
       </c>
@@ -9470,8 +9773,11 @@
       <c r="BK97" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="98" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM97" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="98" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -9556,8 +9862,11 @@
       <c r="BK98" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="99" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM98" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -9645,8 +9954,11 @@
       <c r="BL99" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="100" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM99" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="100" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>258</v>
       </c>
@@ -9731,8 +10043,11 @@
       <c r="BL100" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="101" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM100" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="101" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -9820,8 +10135,11 @@
       <c r="BL101" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="102" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM101" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="102" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>258</v>
       </c>
@@ -9918,8 +10236,11 @@
       <c r="BL102" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="103" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM102" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>258</v>
       </c>
@@ -10016,8 +10337,11 @@
       <c r="BL103" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="104" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM103" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="104" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -10099,8 +10423,11 @@
       <c r="BL104" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="105" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM104" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="105" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>258</v>
       </c>
@@ -10182,8 +10509,11 @@
       <c r="BL105" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="106" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM105" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="106" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>284</v>
       </c>
@@ -10265,8 +10595,11 @@
       <c r="BK106" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="107" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM106" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="107" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>284</v>
       </c>
@@ -10348,8 +10681,11 @@
       <c r="BK107" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="108" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM107" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="108" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>303</v>
       </c>
@@ -10443,8 +10779,11 @@
       <c r="BK108" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="109" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM108" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="109" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>303</v>
       </c>
@@ -10544,8 +10883,11 @@
       <c r="BK109" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="110" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM109" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="110" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -10633,8 +10975,11 @@
       <c r="BK110" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="111" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM110" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="111" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>303</v>
       </c>
@@ -10746,8 +11091,11 @@
       <c r="BK111" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="112" spans="1:64" x14ac:dyDescent="0.35">
+      <c r="BM111" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="112" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>303</v>
       </c>
@@ -10847,9 +11195,18 @@
       <c r="BK112" t="s">
         <v>67</v>
       </c>
+      <c r="BM112" t="s">
+        <v>485</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL112" xr:uid="{84497015-98EC-4B18-BC6B-B2D6C1A2C43D}"/>
+  <autoFilter ref="A1:BM112" xr:uid="{88636C4F-9030-4648-BA6D-129EFCDC7523}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Antimicrobial resistance"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/datasets/distiller_cross.xlsx
+++ b/datasets/distiller_cross.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{132760FD-D63B-49DD-9767-7F4E9F999446}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C1B5C7D3-36B0-4BBF-AC76-AEA2975BC327}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:BM112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10685,7 +10685,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="108" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>303</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="109" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>303</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="110" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="111" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>303</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>303</v>
       </c>
@@ -11201,9 +11201,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM112" xr:uid="{88636C4F-9030-4648-BA6D-129EFCDC7523}">
-    <filterColumn colId="5">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Antimicrobial resistance"/>
+        <filter val="32507530"/>
+        <filter val="32507767"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/datasets/distiller_cross.xlsx
+++ b/datasets/distiller_cross.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C1B5C7D3-36B0-4BBF-AC76-AEA2975BC327}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{232F8707-EF3C-4904-8B76-A3D579F83607}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:BM112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F107" sqref="F107"/>
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -10685,7 +10685,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="108" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>303</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="109" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>303</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="110" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="111" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>303</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>303</v>
       </c>
@@ -11201,10 +11201,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM112" xr:uid="{88636C4F-9030-4648-BA6D-129EFCDC7523}">
-    <filterColumn colId="0">
+    <filterColumn colId="5">
       <filters>
-        <filter val="32507530"/>
-        <filter val="32507767"/>
+        <filter val="Antimicrobial resistance"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/datasets/distiller_cross.xlsx
+++ b/datasets/distiller_cross.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="165" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{232F8707-EF3C-4904-8B76-A3D579F83607}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4706E14F-40E9-42CE-AAD0-E8FB89783129}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1860,11 +1860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:BM112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2073,7 +2072,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="2" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -2518,7 +2517,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2607,7 +2606,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2936,7 +2935,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="12" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2989,7 +2988,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="14" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="16" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3198,7 +3197,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="17" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -3248,7 +3247,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="18" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -3448,7 +3447,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -3498,7 +3497,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3548,7 +3547,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="24" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -3598,7 +3597,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="25" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -3648,7 +3647,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="26" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="27" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -3787,7 +3786,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="28" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3876,7 +3875,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="29" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="31" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="32" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="33" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4126,7 +4125,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4176,7 +4175,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -4226,7 +4225,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="36" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="37" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -4379,7 +4378,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -4429,7 +4428,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="40" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="41" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="42" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="43" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -4635,7 +4634,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="44" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4685,7 +4684,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="45" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="47" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="49" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5028,7 +5027,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="50" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5111,7 +5110,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="51" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="52" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5289,7 +5288,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="53" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="54" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="55" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -5481,7 +5480,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="56" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="57" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="58" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -5703,7 +5702,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>112</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="60" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -5845,7 +5844,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="61" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="62" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>112</v>
       </c>
@@ -5987,7 +5986,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="63" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>112</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="64" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>112</v>
       </c>
@@ -6129,7 +6128,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="65" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -6212,7 +6211,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="66" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="67" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="68" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="69" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -6637,7 +6636,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="70" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="71" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -6836,7 +6835,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="72" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -6979,7 +6978,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="73" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="75" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -7213,7 +7212,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="76" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -7236,7 +7235,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="78" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -7489,7 +7488,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="79" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="80" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="81" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -7819,7 +7818,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="82" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -7884,7 +7883,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="83" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -7949,7 +7948,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="84" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -8083,7 +8082,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="85" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>155</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="86" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -8330,7 +8329,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="87" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="88" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>155</v>
       </c>
@@ -8592,7 +8591,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="89" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -8729,7 +8728,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="90" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="91" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="92" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -9113,7 +9112,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="93" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -9241,7 +9240,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="94" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -9375,7 +9374,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="95" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>250</v>
       </c>
@@ -9509,7 +9508,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="96" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="97" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>250</v>
       </c>
@@ -9777,7 +9776,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="98" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -9866,7 +9865,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="99" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="100" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>258</v>
       </c>
@@ -10047,7 +10046,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="101" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>258</v>
       </c>
@@ -10139,7 +10138,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="102" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>258</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="103" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>258</v>
       </c>
@@ -10341,7 +10340,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -10427,7 +10426,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="105" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>258</v>
       </c>
@@ -10685,7 +10684,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="108" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>303</v>
       </c>
@@ -10783,7 +10782,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="109" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>303</v>
       </c>
@@ -10887,7 +10886,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="110" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>303</v>
       </c>
@@ -10979,7 +10978,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="111" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>303</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="112" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>303</v>
       </c>
@@ -11200,13 +11199,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BM112" xr:uid="{88636C4F-9030-4648-BA6D-129EFCDC7523}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Antimicrobial resistance"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:BM112" xr:uid="{88636C4F-9030-4648-BA6D-129EFCDC7523}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/datasets/distiller_cross.xlsx
+++ b/datasets/distiller_cross.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{42FCA062-115A-4175-8F63-773B4F4DB047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{26C594F4-99CA-4871-ACE5-A5001D0BD12F}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{C2097325-5BDE-4D1A-AE8E-C2497944DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFECB6F9-1265-4542-B702-785D5E4248BC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BM$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BM$149</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4386" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="678">
   <si>
     <t>Refid</t>
   </si>
@@ -1206,9 +1217,6 @@
     <t>0-2250</t>
   </si>
   <si>
-    <t>1.00 (Reference)</t>
-  </si>
-  <si>
     <t>2251-7250</t>
   </si>
   <si>
@@ -1545,9 +1553,6 @@
     <t>5.6</t>
   </si>
   <si>
-    <t>not reported</t>
-  </si>
-  <si>
     <t>Presence of farm with minimum amount of animals within 2000m of residence</t>
   </si>
   <si>
@@ -1998,9 +2003,6 @@
     <t>4.51</t>
   </si>
   <si>
-    <t>11.5</t>
-  </si>
-  <si>
     <t>3.31</t>
   </si>
   <si>
@@ -2050,6 +2052,24 @@
   </si>
   <si>
     <t>Mexico</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>&gt;640 m</t>
+  </si>
+  <si>
+    <t>440-640 m</t>
+  </si>
+  <si>
+    <t>Allergy-related</t>
+  </si>
+  <si>
+    <t>Gastrointestinal condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2089,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2088,6 +2108,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2101,7 +2139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2112,6 +2150,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2426,19 +2467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM147"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:BM149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79:Q132"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="5.25" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="15.08203125" customWidth="1"/>
-    <col min="8" max="64" width="8.6640625" customWidth="1"/>
+    <col min="8" max="64" width="8.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="39" customHeight="1" x14ac:dyDescent="0.35">
@@ -2635,10 +2679,10 @@
         <v>57</v>
       </c>
       <c r="BM1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2724,10 +2768,10 @@
         <v>67</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2813,10 +2857,10 @@
         <v>67</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2902,10 +2946,10 @@
         <v>67</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2991,10 +3035,10 @@
         <v>67</v>
       </c>
       <c r="BM5" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3080,10 +3124,10 @@
         <v>67</v>
       </c>
       <c r="BM6" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3169,10 +3213,10 @@
         <v>67</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -3258,10 +3302,10 @@
         <v>67</v>
       </c>
       <c r="BM8" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -3341,10 +3385,10 @@
         <v>67</v>
       </c>
       <c r="BM9" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -3424,10 +3468,10 @@
         <v>67</v>
       </c>
       <c r="BM10" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3507,10 +3551,10 @@
         <v>67</v>
       </c>
       <c r="BM11" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -3560,10 +3604,10 @@
         <v>67</v>
       </c>
       <c r="BM12" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3613,10 +3657,10 @@
         <v>67</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3666,10 +3710,10 @@
         <v>67</v>
       </c>
       <c r="BM14" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3719,10 +3763,10 @@
         <v>67</v>
       </c>
       <c r="BM15" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3772,10 +3816,10 @@
         <v>67</v>
       </c>
       <c r="BM16" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -3825,10 +3869,10 @@
         <v>67</v>
       </c>
       <c r="BM17" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3878,10 +3922,10 @@
         <v>67</v>
       </c>
       <c r="BM18" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3931,10 +3975,10 @@
         <v>67</v>
       </c>
       <c r="BM19" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -3984,10 +4028,10 @@
         <v>67</v>
       </c>
       <c r="BM20" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4037,10 +4081,10 @@
         <v>67</v>
       </c>
       <c r="BM21" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -4090,10 +4134,10 @@
         <v>67</v>
       </c>
       <c r="BM22" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -4143,10 +4187,10 @@
         <v>67</v>
       </c>
       <c r="BM23" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -4196,10 +4240,10 @@
         <v>67</v>
       </c>
       <c r="BM24" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -4249,10 +4293,10 @@
         <v>67</v>
       </c>
       <c r="BM25" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -4302,10 +4346,10 @@
         <v>67</v>
       </c>
       <c r="BM26" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -4325,7 +4369,7 @@
         <v>62</v>
       </c>
       <c r="G27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>320</v>
@@ -4391,10 +4435,10 @@
         <v>67</v>
       </c>
       <c r="BM27" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -4414,7 +4458,7 @@
         <v>62</v>
       </c>
       <c r="G28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>320</v>
@@ -4480,10 +4524,10 @@
         <v>67</v>
       </c>
       <c r="BM28" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -4503,7 +4547,7 @@
         <v>62</v>
       </c>
       <c r="G29" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>350</v>
@@ -4530,10 +4574,10 @@
         <v>67</v>
       </c>
       <c r="BM29" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -4553,7 +4597,7 @@
         <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>329</v>
@@ -4580,10 +4624,10 @@
         <v>67</v>
       </c>
       <c r="BM30" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4603,7 +4647,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>310</v>
@@ -4630,10 +4674,10 @@
         <v>67</v>
       </c>
       <c r="BM31" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4653,7 +4697,7 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>181</v>
@@ -4680,10 +4724,10 @@
         <v>67</v>
       </c>
       <c r="BM32" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4703,7 +4747,7 @@
         <v>62</v>
       </c>
       <c r="G33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>348</v>
@@ -4730,10 +4774,10 @@
         <v>67</v>
       </c>
       <c r="BM33" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4753,7 +4797,7 @@
         <v>62</v>
       </c>
       <c r="G34" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>329</v>
@@ -4780,10 +4824,10 @@
         <v>67</v>
       </c>
       <c r="BM34" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -4803,7 +4847,7 @@
         <v>62</v>
       </c>
       <c r="G35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>319</v>
@@ -4830,10 +4874,10 @@
         <v>67</v>
       </c>
       <c r="BM35" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -4853,7 +4897,7 @@
         <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>298</v>
@@ -4880,10 +4924,10 @@
         <v>67</v>
       </c>
       <c r="BM36" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -4903,7 +4947,7 @@
         <v>62</v>
       </c>
       <c r="G37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>330</v>
@@ -4930,10 +4974,10 @@
         <v>67</v>
       </c>
       <c r="BM37" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -4953,7 +4997,7 @@
         <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I38" t="s">
         <v>323</v>
@@ -4983,10 +5027,10 @@
         <v>67</v>
       </c>
       <c r="BM38" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -5006,7 +5050,7 @@
         <v>62</v>
       </c>
       <c r="G39" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>338</v>
@@ -5033,10 +5077,10 @@
         <v>67</v>
       </c>
       <c r="BM39" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -5056,7 +5100,7 @@
         <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I40" t="s">
         <v>323</v>
@@ -5086,10 +5130,10 @@
         <v>67</v>
       </c>
       <c r="BM40" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -5109,7 +5153,7 @@
         <v>62</v>
       </c>
       <c r="G41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I41" t="s">
         <v>323</v>
@@ -5139,10 +5183,10 @@
         <v>67</v>
       </c>
       <c r="BM41" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -5162,7 +5206,7 @@
         <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>181</v>
@@ -5189,10 +5233,10 @@
         <v>67</v>
       </c>
       <c r="BM42" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -5212,7 +5256,7 @@
         <v>62</v>
       </c>
       <c r="G43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>327</v>
@@ -5239,10 +5283,10 @@
         <v>67</v>
       </c>
       <c r="BM43" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="44" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -5292,10 +5336,10 @@
         <v>67</v>
       </c>
       <c r="BM44" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="45" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -5345,10 +5389,10 @@
         <v>67</v>
       </c>
       <c r="BM45" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5398,10 +5442,10 @@
         <v>67</v>
       </c>
       <c r="BM46" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5421,7 +5465,7 @@
         <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>344</v>
@@ -5478,10 +5522,10 @@
         <v>67</v>
       </c>
       <c r="BM47" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="48" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5501,7 +5545,7 @@
         <v>62</v>
       </c>
       <c r="G48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>319</v>
@@ -5558,10 +5602,10 @@
         <v>67</v>
       </c>
       <c r="BM48" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5581,7 +5625,7 @@
         <v>62</v>
       </c>
       <c r="G49" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I49" t="s">
         <v>331</v>
@@ -5641,10 +5685,10 @@
         <v>67</v>
       </c>
       <c r="BM49" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5664,7 +5708,7 @@
         <v>62</v>
       </c>
       <c r="G50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I50" t="s">
         <v>331</v>
@@ -5724,10 +5768,10 @@
         <v>67</v>
       </c>
       <c r="BM50" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5813,10 +5857,10 @@
         <v>67</v>
       </c>
       <c r="BM51" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5902,10 +5946,10 @@
         <v>67</v>
       </c>
       <c r="BM52" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -5955,10 +5999,10 @@
         <v>67</v>
       </c>
       <c r="BM53" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -5978,7 +6022,7 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>320</v>
@@ -6044,10 +6088,10 @@
         <v>67</v>
       </c>
       <c r="BM54" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -6067,7 +6111,7 @@
         <v>62</v>
       </c>
       <c r="G55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>341</v>
@@ -6094,10 +6138,10 @@
         <v>67</v>
       </c>
       <c r="BM55" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -6177,578 +6221,866 @@
         <v>67</v>
       </c>
       <c r="BM56" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:65" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="8">
+        <v>3</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG57" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP57" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ57" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AR57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS57" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT57" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU57" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV57" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW57" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX57" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY57" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK57" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM57" s="8" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="57" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="58" spans="1:65" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C57">
+      <c r="C58" s="8">
         <v>3</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G57" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG57" t="s">
+      <c r="G58" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="W58" s="3">
+        <v>1.05</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="AG58" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AH57" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI57" t="s">
+      <c r="AH58" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI58" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AP57" t="s">
+      <c r="AP58" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AQ57" t="s">
-        <v>117</v>
-      </c>
-      <c r="AR57" t="s">
+      <c r="AQ58" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR58" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AS57" t="s">
+      <c r="AS58" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AT57" t="s">
+      <c r="AT58" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AU57" t="s">
+      <c r="AU58" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AV57" t="s">
+      <c r="AV58" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AW57" t="s">
+      <c r="AW58" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AX57" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY57" t="s">
+      <c r="AX58" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY58" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AZ57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK57" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM57" t="s">
-        <v>454</v>
+      <c r="AZ58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM58" s="8" t="s">
+        <v>453</v>
       </c>
     </row>
-    <row r="58" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:65" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C58">
+      <c r="C59" s="8">
         <v>3</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F59" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G59" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG59" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH59" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI59" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ59" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS59" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU59" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV59" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX59" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY59" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM59" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="60" spans="1:65" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="8">
+        <v>3</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC60" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="AE60" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="AF60" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG60" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH60" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI60" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ60" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR60" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS60" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU60" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV60" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW60" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX60" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK60" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM60" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:65" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" s="8">
+        <v>3</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG61" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH61" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI61" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP61" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ61" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR61" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS61" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT61" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU61" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV61" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW61" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX61" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY61" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM61" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:65" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="8">
+        <v>3</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G62" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AG58" t="s">
+      <c r="I62" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0.43</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="W62" s="3">
+        <v>1.01</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="AG62" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AH58" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI58" t="s">
+      <c r="AH62" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI62" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AP58" t="s">
+      <c r="AP62" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AQ58" t="s">
+      <c r="AQ62" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AR58" t="s">
+      <c r="AR62" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AS58" t="s">
+      <c r="AS62" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AT58" t="s">
+      <c r="AT62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW62" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY62" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ62" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK62" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM62" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="1:65" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="8">
+        <v>3</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AG63" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH63" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP63" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AU58" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV58" t="s">
+      <c r="AQ63" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR63" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS63" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU63" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW63" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX63" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY63" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK63" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM63" s="8" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:65" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="8">
+        <v>3</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="O64" s="3">
+        <v>1.51</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="Q64" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="S64" s="3">
+        <v>1.07</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="U64" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="W64" s="3">
+        <v>1.56</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="Y64" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AC64" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>3.55</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>14.38</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="AG64" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI64" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP64" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AW58" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX58" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY58" t="s">
+      <c r="AQ64" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="AR64" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS64" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT64" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU64" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV64" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW64" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX64" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY64" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AZ58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK58" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM58" t="s">
-        <v>454</v>
+      <c r="AZ64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK64" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM64" s="8" t="s">
+        <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>112</v>
-      </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI59" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP59" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ59" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR59" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS59" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT59" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU59" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV59" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW59" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX59" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY59" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK59" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM59" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="60" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>112</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>113</v>
-      </c>
-      <c r="E60" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI60" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP60" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ60" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR60" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS60" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT60" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU60" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV60" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW60" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX60" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY60" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK60" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM60" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="61" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>112</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61" t="s">
-        <v>114</v>
-      </c>
-      <c r="F61" t="s">
-        <v>62</v>
-      </c>
-      <c r="G61" t="s">
-        <v>126</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI61" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP61" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ61" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR61" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS61" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT61" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU61" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV61" t="s">
-        <v>104</v>
-      </c>
-      <c r="AW61" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX61" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY61" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK61" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM61" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="62" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" t="s">
-        <v>62</v>
-      </c>
-      <c r="G62" t="s">
-        <v>122</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI62" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP62" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ62" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR62" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS62" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT62" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU62" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV62" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW62" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX62" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY62" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK62" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM62" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="63" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>112</v>
-      </c>
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" t="s">
-        <v>114</v>
-      </c>
-      <c r="F63" t="s">
-        <v>128</v>
-      </c>
-      <c r="G63" t="s">
-        <v>124</v>
-      </c>
-      <c r="AG63" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH63" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI63" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP63" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ63" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR63" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS63" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW63" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX63" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY63" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK63" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM63" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="64" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" t="s">
-        <v>114</v>
-      </c>
-      <c r="F64" t="s">
-        <v>62</v>
-      </c>
-      <c r="G64" t="s">
-        <v>129</v>
-      </c>
-      <c r="AG64" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI64" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP64" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ64" t="s">
-        <v>123</v>
-      </c>
-      <c r="AR64" t="s">
-        <v>81</v>
-      </c>
-      <c r="AS64" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT64" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV64" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX64" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY64" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BK64" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM64" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="65" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>112</v>
       </c>
@@ -6828,10 +7160,10 @@
         <v>67</v>
       </c>
       <c r="BM65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="66" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -6947,10 +7279,10 @@
         <v>67</v>
       </c>
       <c r="BM66" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="67" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -7030,10 +7362,10 @@
         <v>67</v>
       </c>
       <c r="BM67" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="68" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>112</v>
       </c>
@@ -7173,10 +7505,10 @@
         <v>67</v>
       </c>
       <c r="BM68" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="69" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>112</v>
       </c>
@@ -7253,10 +7585,10 @@
         <v>67</v>
       </c>
       <c r="BM69" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="70" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -7372,10 +7704,10 @@
         <v>67</v>
       </c>
       <c r="BM70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="71" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -7452,10 +7784,10 @@
         <v>67</v>
       </c>
       <c r="BM71" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="72" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -7595,10 +7927,10 @@
         <v>67</v>
       </c>
       <c r="BM72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="73" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>112</v>
       </c>
@@ -7620,6 +7952,18 @@
       <c r="G73" t="s">
         <v>115</v>
       </c>
+      <c r="I73" t="s">
+        <v>331</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0.49</v>
+      </c>
       <c r="AG73" t="s">
         <v>74</v>
       </c>
@@ -7666,10 +8010,10 @@
         <v>67</v>
       </c>
       <c r="BM73" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="74" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>112</v>
       </c>
@@ -7749,10 +8093,10 @@
         <v>67</v>
       </c>
       <c r="BM74" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="75" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>112</v>
       </c>
@@ -7829,10 +8173,10 @@
         <v>67</v>
       </c>
       <c r="BM75" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="76" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -7852,10 +8196,10 @@
         <v>67</v>
       </c>
       <c r="BM76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="77" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -7877,11 +8221,11 @@
       <c r="G77" t="s">
         <v>136</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>393</v>
+      <c r="J77" s="3">
+        <v>1</v>
       </c>
       <c r="K77" s="3" t="s">
         <v>322</v>
@@ -7890,37 +8234,37 @@
         <v>322</v>
       </c>
       <c r="M77" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="N77" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>395</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>162</v>
       </c>
       <c r="P77" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q77" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="Q77" s="3" t="s">
+      <c r="R77" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="R77" s="3" t="s">
+      <c r="S77" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="S77" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="T77" s="3" t="s">
         <v>324</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="V77" s="3" t="s">
         <v>242</v>
       </c>
       <c r="W77" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="X77" s="3" t="s">
         <v>360</v>
@@ -7971,10 +8315,10 @@
         <v>67</v>
       </c>
       <c r="BM77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="78" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -8015,10 +8359,10 @@
         <v>364</v>
       </c>
       <c r="N78" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="P78" s="3" t="s">
         <v>319</v>
@@ -8105,7 +8449,7 @@
         <v>67</v>
       </c>
       <c r="BM78" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="79" spans="1:65" x14ac:dyDescent="0.35">
@@ -8133,11 +8477,11 @@
       <c r="H79" t="s">
         <v>144</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="J79" s="3" t="s">
-        <v>393</v>
+      <c r="J79" s="3">
+        <v>1</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>322</v>
@@ -8146,40 +8490,40 @@
         <v>322</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N79" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="O79" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="P79" s="3" t="s">
         <v>213</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R79" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="S79" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="S79" s="3" t="s">
+      <c r="T79" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="T79" s="3" t="s">
+      <c r="U79" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="V79" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="U79" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="V79" s="3" t="s">
+      <c r="W79" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="W79" s="3" t="s">
+      <c r="X79" s="3" t="s">
         <v>410</v>
-      </c>
-      <c r="X79" s="3" t="s">
-        <v>411</v>
       </c>
       <c r="AG79" t="s">
         <v>74</v>
@@ -8230,7 +8574,7 @@
         <v>146</v>
       </c>
       <c r="BM79" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:65" x14ac:dyDescent="0.35">
@@ -8265,7 +8609,7 @@
         <v>324</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>388</v>
@@ -8289,7 +8633,7 @@
         <v>177</v>
       </c>
       <c r="S80" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T80" s="3" t="s">
         <v>341</v>
@@ -8304,7 +8648,7 @@
         <v>336</v>
       </c>
       <c r="X80" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Y80" s="3" t="s">
         <v>376</v>
@@ -8316,7 +8660,7 @@
         <v>199</v>
       </c>
       <c r="AB80" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG80" t="s">
         <v>74</v>
@@ -8364,10 +8708,10 @@
         <v>67</v>
       </c>
       <c r="BM80" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>148</v>
       </c>
@@ -8387,7 +8731,7 @@
         <v>128</v>
       </c>
       <c r="G81" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H81" t="s">
         <v>150</v>
@@ -8399,10 +8743,10 @@
         <v>354</v>
       </c>
       <c r="K81" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="AG81" t="s">
         <v>64</v>
@@ -8435,10 +8779,10 @@
         <v>151</v>
       </c>
       <c r="BM81" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="82" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>148</v>
       </c>
@@ -8460,13 +8804,16 @@
       <c r="G82" t="s">
         <v>149</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I82" t="s">
+        <v>331</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K82" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="J82" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="K82" s="3" t="s">
+      <c r="L82" s="3" t="s">
         <v>200</v>
       </c>
       <c r="AG82" t="s">
@@ -8500,10 +8847,10 @@
         <v>151</v>
       </c>
       <c r="BM82" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="83" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -8525,13 +8872,16 @@
       <c r="G83" t="s">
         <v>149</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" t="s">
+        <v>331</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>241</v>
       </c>
       <c r="AG83" t="s">
@@ -8565,10 +8915,10 @@
         <v>154</v>
       </c>
       <c r="BM83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="84" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>155</v>
       </c>
@@ -8699,10 +9049,10 @@
         <v>67</v>
       </c>
       <c r="BM84" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="85" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>155</v>
       </c>
@@ -8827,10 +9177,10 @@
         <v>67</v>
       </c>
       <c r="BM85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="86" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>155</v>
       </c>
@@ -8946,10 +9296,10 @@
         <v>67</v>
       </c>
       <c r="BM86" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="87" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>155</v>
       </c>
@@ -8972,7 +9322,7 @@
         <v>197</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>321</v>
@@ -8984,7 +9334,7 @@
         <v>322</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>198</v>
@@ -8996,10 +9346,10 @@
         <v>200</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S87" s="3" t="s">
         <v>202</v>
@@ -9014,7 +9364,7 @@
         <v>204</v>
       </c>
       <c r="W87" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="X87" s="3" t="s">
         <v>206</v>
@@ -9080,10 +9430,10 @@
         <v>67</v>
       </c>
       <c r="BM87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="88" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>155</v>
       </c>
@@ -9208,10 +9558,10 @@
         <v>67</v>
       </c>
       <c r="BM88" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="89" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>155</v>
       </c>
@@ -9237,7 +9587,7 @@
         <v>223</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>321</v>
@@ -9249,7 +9599,7 @@
         <v>322</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>224</v>
@@ -9261,7 +9611,7 @@
         <v>226</v>
       </c>
       <c r="Q89" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>167</v>
@@ -9345,10 +9695,10 @@
         <v>67</v>
       </c>
       <c r="BM89" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="90" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -9401,7 +9751,7 @@
         <v>228</v>
       </c>
       <c r="S90" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T90" s="3" t="s">
         <v>321</v>
@@ -9410,10 +9760,10 @@
         <v>168</v>
       </c>
       <c r="V90" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="W90" s="3" t="s">
         <v>423</v>
-      </c>
-      <c r="W90" s="3" t="s">
-        <v>424</v>
       </c>
       <c r="X90" s="3" t="s">
         <v>176</v>
@@ -9479,10 +9829,10 @@
         <v>67</v>
       </c>
       <c r="BM90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="91" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>155</v>
       </c>
@@ -9505,7 +9855,7 @@
         <v>197</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>321</v>
@@ -9517,25 +9867,25 @@
         <v>322</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N91" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>176</v>
       </c>
       <c r="P91" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Q91" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>241</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>368</v>
@@ -9547,10 +9897,10 @@
         <v>346</v>
       </c>
       <c r="W91" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="AG91" t="s">
         <v>64</v>
@@ -9598,10 +9948,10 @@
         <v>67</v>
       </c>
       <c r="BM91" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -9729,10 +10079,10 @@
         <v>67</v>
       </c>
       <c r="BM92" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="93" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -9857,10 +10207,10 @@
         <v>67</v>
       </c>
       <c r="BM93" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="94" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>250</v>
       </c>
@@ -9883,7 +10233,7 @@
         <v>252</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>159</v>
@@ -9895,25 +10245,25 @@
         <v>322</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>201</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>227</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>300</v>
@@ -9925,7 +10275,7 @@
         <v>312</v>
       </c>
       <c r="W94" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>303</v>
@@ -9991,10 +10341,10 @@
         <v>67</v>
       </c>
       <c r="BM94" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="95" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>250</v>
       </c>
@@ -10029,40 +10379,40 @@
         <v>322</v>
       </c>
       <c r="M95" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="N95" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="N95" s="3" t="s">
+      <c r="O95" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="P95" s="3" t="s">
         <v>214</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R95" s="3" t="s">
         <v>306</v>
       </c>
       <c r="S95" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="U95" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="T95" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="U95" s="3" t="s">
+      <c r="V95" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="V95" s="3" t="s">
+      <c r="W95" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="W95" s="3" t="s">
-        <v>440</v>
-      </c>
       <c r="X95" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG95" t="s">
         <v>64</v>
@@ -10125,10 +10475,10 @@
         <v>67</v>
       </c>
       <c r="BM95" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="96" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>250</v>
       </c>
@@ -10151,7 +10501,7 @@
         <v>252</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>159</v>
@@ -10163,40 +10513,40 @@
         <v>322</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P96" s="3" t="s">
         <v>304</v>
       </c>
       <c r="Q96" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R96" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S96" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U96" s="3" t="s">
         <v>219</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W96" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="X96" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG96" t="s">
         <v>64</v>
@@ -10259,10 +10609,10 @@
         <v>67</v>
       </c>
       <c r="BM96" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="97" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>250</v>
       </c>
@@ -10297,37 +10647,37 @@
         <v>322</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N97" s="3" t="s">
         <v>225</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P97" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="S97" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="Q97" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="R97" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="S97" s="3" t="s">
+      <c r="T97" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="T97" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="U97" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W97" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="X97" s="3" t="s">
         <v>225</v>
@@ -10393,10 +10743,10 @@
         <v>67</v>
       </c>
       <c r="BM97" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="98" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -10482,10 +10832,10 @@
         <v>67</v>
       </c>
       <c r="BM98" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="99" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>258</v>
       </c>
@@ -10574,10 +10924,10 @@
         <v>266</v>
       </c>
       <c r="BM99" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="100" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>258</v>
       </c>
@@ -10663,12 +11013,12 @@
         <v>266</v>
       </c>
       <c r="BM100" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="101" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>258</v>
+        <v>677</v>
       </c>
       <c r="B101" t="s">
         <v>59</v>
@@ -10755,10 +11105,10 @@
         <v>276</v>
       </c>
       <c r="BM101" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="102" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>258</v>
       </c>
@@ -10856,10 +11206,10 @@
         <v>276</v>
       </c>
       <c r="BM102" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="103" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>258</v>
       </c>
@@ -10881,7 +11231,7 @@
       <c r="G103" t="s">
         <v>260</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="7" t="s">
         <v>271</v>
       </c>
       <c r="J103" s="3" t="s">
@@ -10957,10 +11307,10 @@
         <v>276</v>
       </c>
       <c r="BM103" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="104" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>258</v>
       </c>
@@ -11043,10 +11393,10 @@
         <v>282</v>
       </c>
       <c r="BM104" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="105" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>258</v>
       </c>
@@ -11129,15 +11479,15 @@
         <v>266</v>
       </c>
       <c r="BM105" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
-    <row r="106" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:65" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C106" s="3">
         <v>3</v>
@@ -11155,10 +11505,10 @@
         <v>287</v>
       </c>
       <c r="H106" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I106" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>288</v>
@@ -11170,52 +11520,52 @@
         <v>290</v>
       </c>
       <c r="M106" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="N106" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="N106" s="3" t="s">
+      <c r="O106" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="O106" s="3" t="s">
+      <c r="P106" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="P106" s="3" t="s">
+      <c r="Q106" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="Q106" s="3" t="s">
+      <c r="R106" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="R106" s="3" t="s">
+      <c r="S106" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="S106" s="3" t="s">
+      <c r="T106" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="T106" s="3" t="s">
+      <c r="U106" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="U106" s="3" t="s">
+      <c r="V106" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="V106" s="3" t="s">
+      <c r="W106" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="W106" s="3" t="s">
+      <c r="X106" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="X106" s="3" t="s">
+      <c r="Y106" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="Y106" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="Z106" s="3" t="s">
         <v>321</v>
       </c>
       <c r="AA106" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AB106" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AC106" s="3"/>
       <c r="AD106" s="3"/>
@@ -11228,7 +11578,7 @@
         <v>66</v>
       </c>
       <c r="AI106" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AJ106" s="3"/>
       <c r="AK106" s="3"/>
@@ -11240,31 +11590,31 @@
         <v>104</v>
       </c>
       <c r="AQ106" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AR106" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS106" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AU106" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AV106" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AW106" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AX106" s="3" t="s">
         <v>76</v>
       </c>
       <c r="AY106" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AZ106" s="3" t="s">
         <v>83</v>
@@ -11284,12 +11634,12 @@
       </c>
       <c r="BL106" s="3"/>
     </row>
-    <row r="107" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C107" s="3">
         <v>3</v>
@@ -11306,11 +11656,11 @@
       <c r="G107" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H107" s="3" t="s">
+      <c r="H107" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="I107" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="J107" s="3" t="s">
         <v>292</v>
@@ -11322,52 +11672,52 @@
         <v>294</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N107" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="O107" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="O107" s="3" t="s">
+      <c r="P107" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="P107" s="3" t="s">
+      <c r="Q107" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="R107" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="Q107" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="R107" s="3" t="s">
+      <c r="S107" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="S107" s="3" t="s">
+      <c r="T107" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="T107" s="3" t="s">
+      <c r="U107" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="V107" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="U107" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="V107" s="3" t="s">
+      <c r="W107" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="W107" s="3" t="s">
+      <c r="X107" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="X107" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="Y107" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Z107" s="3" t="s">
         <v>321</v>
       </c>
       <c r="AA107" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AB107" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AC107" s="3"/>
       <c r="AD107" s="3"/>
@@ -11380,7 +11730,7 @@
         <v>66</v>
       </c>
       <c r="AI107" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AJ107" s="3"/>
       <c r="AK107" s="3"/>
@@ -11392,31 +11742,31 @@
         <v>104</v>
       </c>
       <c r="AQ107" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AR107" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS107" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AT107" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AU107" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AV107" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AW107" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AX107" s="3" t="s">
         <v>76</v>
       </c>
       <c r="AY107" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AZ107" s="3" t="s">
         <v>83</v>
@@ -11436,12 +11786,12 @@
       </c>
       <c r="BL107" s="3"/>
     </row>
-    <row r="108" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C108" s="3">
         <v>3</v>
@@ -11459,7 +11809,7 @@
         <v>296</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I108" s="3" t="s">
         <v>297</v>
@@ -11508,7 +11858,7 @@
         <v>66</v>
       </c>
       <c r="AI108" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ108" s="3"/>
       <c r="AK108" s="3"/>
@@ -11520,31 +11870,31 @@
         <v>104</v>
       </c>
       <c r="AQ108" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="AR108" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS108" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="AR108" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS108" s="3" t="s">
+      <c r="AT108" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU108" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="AT108" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU108" s="3" t="s">
+      <c r="AV108" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW108" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX108" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY108" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="AV108" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW108" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="AX108" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY108" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="AZ108" s="3" t="s">
         <v>67</v>
@@ -11563,15 +11913,15 @@
         <v>67</v>
       </c>
       <c r="BL108" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="109" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C109" s="3">
         <v>3</v>
@@ -11586,22 +11936,22 @@
         <v>62</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I109" s="3" t="s">
         <v>366</v>
       </c>
       <c r="J109" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="K109" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="K109" s="3" t="s">
-        <v>496</v>
-      </c>
       <c r="L109" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M109" s="3" t="s">
         <v>364</v>
@@ -11610,13 +11960,13 @@
         <v>187</v>
       </c>
       <c r="O109" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P109" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q109" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R109" s="3" t="s">
         <v>161</v>
@@ -11634,19 +11984,19 @@
         <v>198</v>
       </c>
       <c r="W109" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X109" s="3" t="s">
         <v>214</v>
       </c>
       <c r="Y109" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z109" s="3" t="s">
         <v>344</v>
       </c>
       <c r="AA109" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AB109" s="3" t="s">
         <v>214</v>
@@ -11670,7 +12020,7 @@
         <v>66</v>
       </c>
       <c r="AI109" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ109" s="3"/>
       <c r="AK109" s="3"/>
@@ -11682,31 +12032,31 @@
         <v>104</v>
       </c>
       <c r="AQ109" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR109" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AS109" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT109" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU109" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AT109" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU109" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="AV109" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW109" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX109" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY109" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ109" s="3" t="s">
         <v>67</v>
@@ -11725,15 +12075,15 @@
         <v>67</v>
       </c>
       <c r="BL109" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="110" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C110" s="3">
         <v>3</v>
@@ -11748,22 +12098,22 @@
         <v>62</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I110" s="3" t="s">
         <v>366</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M110" s="3" t="s">
         <v>364</v>
@@ -11778,7 +12128,7 @@
         <v>300</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R110" s="3" t="s">
         <v>181</v>
@@ -11796,19 +12146,19 @@
         <v>206</v>
       </c>
       <c r="W110" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="X110" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Y110" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z110" s="3" t="s">
         <v>360</v>
       </c>
       <c r="AA110" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AB110" s="3" t="s">
         <v>300</v>
@@ -11820,7 +12170,7 @@
         <v>334</v>
       </c>
       <c r="AE110" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF110" s="3" t="s">
         <v>214</v>
@@ -11832,7 +12182,7 @@
         <v>66</v>
       </c>
       <c r="AI110" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ110" s="3"/>
       <c r="AK110" s="3"/>
@@ -11844,31 +12194,31 @@
         <v>104</v>
       </c>
       <c r="AQ110" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR110" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AS110" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT110" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU110" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AT110" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU110" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="AV110" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW110" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX110" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY110" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ110" s="3" t="s">
         <v>67</v>
@@ -11887,15 +12237,15 @@
         <v>67</v>
       </c>
       <c r="BL110" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="111" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C111" s="3">
         <v>3</v>
@@ -11910,16 +12260,16 @@
         <v>62</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>366</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>312</v>
@@ -11940,13 +12290,13 @@
         <v>227</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="R111" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="S111" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="S111" s="3" t="s">
-        <v>505</v>
       </c>
       <c r="T111" s="3" t="s">
         <v>227</v>
@@ -11954,20 +12304,14 @@
       <c r="U111" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="V111" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="W111" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="X111" s="3" t="s">
-        <v>506</v>
-      </c>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
       <c r="Y111" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z111" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AA111" s="3" t="s">
         <v>205</v>
@@ -11985,7 +12329,7 @@
         <v>225</v>
       </c>
       <c r="AF111" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG111" s="3" t="s">
         <v>74</v>
@@ -11994,7 +12338,7 @@
         <v>66</v>
       </c>
       <c r="AI111" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ111" s="3"/>
       <c r="AK111" s="3"/>
@@ -12006,31 +12350,31 @@
         <v>104</v>
       </c>
       <c r="AQ111" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR111" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AS111" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT111" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU111" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AT111" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU111" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="AV111" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW111" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX111" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY111" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ111" s="3" t="s">
         <v>67</v>
@@ -12049,15 +12393,15 @@
         <v>67</v>
       </c>
       <c r="BL111" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="112" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C112" s="3">
         <v>3</v>
@@ -12072,16 +12416,16 @@
         <v>62</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I112" s="3" t="s">
         <v>366</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>205</v>
@@ -12102,37 +12446,25 @@
         <v>214</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="R112" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="S112" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="T112" s="3" t="s">
-        <v>506</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
       <c r="U112" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="V112" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="W112" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="X112" s="3" t="s">
-        <v>506</v>
-      </c>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
       <c r="Y112" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z112" s="3" t="s">
         <v>354</v>
       </c>
       <c r="AA112" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AB112" s="3" t="s">
         <v>227</v>
@@ -12144,10 +12476,10 @@
         <v>316</v>
       </c>
       <c r="AE112" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF112" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG112" s="3" t="s">
         <v>74</v>
@@ -12156,7 +12488,7 @@
         <v>66</v>
       </c>
       <c r="AI112" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ112" s="3"/>
       <c r="AK112" s="3"/>
@@ -12168,31 +12500,31 @@
         <v>104</v>
       </c>
       <c r="AQ112" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR112" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AS112" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT112" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU112" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AT112" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU112" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="AV112" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW112" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX112" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY112" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ112" s="3" t="s">
         <v>67</v>
@@ -12211,15 +12543,15 @@
         <v>67</v>
       </c>
       <c r="BL112" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="113" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C113" s="3">
         <v>3</v>
@@ -12234,24 +12566,28 @@
         <v>62</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="J113" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
+      <c r="K113" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="M113" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="N113" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O113" s="3" t="s">
         <v>225</v>
@@ -12260,7 +12596,7 @@
         <v>304</v>
       </c>
       <c r="Q113" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="R113" s="3" t="s">
         <v>344</v>
@@ -12272,7 +12608,7 @@
         <v>214</v>
       </c>
       <c r="U113" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="V113" s="3" t="s">
         <v>237</v>
@@ -12298,7 +12634,7 @@
         <v>66</v>
       </c>
       <c r="AI113" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ113" s="3"/>
       <c r="AK113" s="3"/>
@@ -12310,31 +12646,31 @@
         <v>104</v>
       </c>
       <c r="AQ113" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR113" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AS113" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT113" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU113" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AT113" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU113" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="AV113" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW113" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX113" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY113" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ113" s="3" t="s">
         <v>67</v>
@@ -12353,15 +12689,15 @@
         <v>67</v>
       </c>
       <c r="BL113" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="114" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C114" s="3">
         <v>3</v>
@@ -12376,21 +12712,25 @@
         <v>62</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="J114" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K114" s="3"/>
-      <c r="L114" s="3"/>
+      <c r="K114" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="M114" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="N114" s="3" t="s">
         <v>310</v>
@@ -12402,7 +12742,7 @@
         <v>214</v>
       </c>
       <c r="Q114" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="R114" s="3" t="s">
         <v>181</v>
@@ -12414,7 +12754,7 @@
         <v>214</v>
       </c>
       <c r="U114" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="V114" s="3" t="s">
         <v>306</v>
@@ -12440,7 +12780,7 @@
         <v>66</v>
       </c>
       <c r="AI114" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ114" s="3"/>
       <c r="AK114" s="3"/>
@@ -12452,31 +12792,31 @@
         <v>104</v>
       </c>
       <c r="AQ114" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR114" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AS114" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT114" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU114" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AT114" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU114" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="AV114" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW114" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX114" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY114" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ114" s="3" t="s">
         <v>67</v>
@@ -12495,15 +12835,15 @@
         <v>67</v>
       </c>
       <c r="BL114" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="115" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C115" s="3">
         <v>3</v>
@@ -12521,18 +12861,22 @@
         <v>313</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K115" s="3"/>
-      <c r="L115" s="3"/>
+      <c r="K115" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="M115" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N115" s="3" t="s">
         <v>314</v>
@@ -12544,7 +12888,7 @@
         <v>316</v>
       </c>
       <c r="Q115" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="R115" s="3" t="s">
         <v>317</v>
@@ -12574,7 +12918,7 @@
         <v>66</v>
       </c>
       <c r="AI115" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ115" s="3"/>
       <c r="AK115" s="3"/>
@@ -12586,31 +12930,31 @@
         <v>104</v>
       </c>
       <c r="AQ115" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR115" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AS115" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT115" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU115" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AT115" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU115" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="AV115" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW115" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX115" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY115" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ115" s="3" t="s">
         <v>67</v>
@@ -12629,15 +12973,15 @@
         <v>67</v>
       </c>
       <c r="BL115" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="116" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C116" s="3">
         <v>3</v>
@@ -12655,18 +12999,22 @@
         <v>313</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J116" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
+      <c r="K116" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="M116" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N116" s="3" t="s">
         <v>169</v>
@@ -12678,7 +13026,7 @@
         <v>218</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="R116" s="3" t="s">
         <v>338</v>
@@ -12708,7 +13056,7 @@
         <v>66</v>
       </c>
       <c r="AI116" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ116" s="3"/>
       <c r="AK116" s="3"/>
@@ -12720,31 +13068,31 @@
         <v>104</v>
       </c>
       <c r="AQ116" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AR116" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AS116" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT116" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU116" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="AT116" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU116" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="AV116" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW116" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX116" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY116" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ116" s="3" t="s">
         <v>67</v>
@@ -12763,15 +13111,15 @@
         <v>67</v>
       </c>
       <c r="BL116" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="117" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C117" s="3">
         <v>3</v>
@@ -12789,18 +13137,22 @@
         <v>305</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
+      <c r="K117" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="M117" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="N117" s="3" t="s">
         <v>306</v>
@@ -12812,7 +13164,7 @@
         <v>201</v>
       </c>
       <c r="Q117" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="R117" s="3" t="s">
         <v>307</v>
@@ -12842,7 +13194,7 @@
         <v>66</v>
       </c>
       <c r="AI117" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AJ117" s="3"/>
       <c r="AK117" s="3"/>
@@ -12854,31 +13206,31 @@
         <v>104</v>
       </c>
       <c r="AQ117" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="AR117" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS117" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="AR117" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS117" s="3" t="s">
+      <c r="AT117" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU117" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="AT117" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU117" s="3" t="s">
+      <c r="AV117" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW117" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="AX117" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY117" s="3" t="s">
         <v>491</v>
-      </c>
-      <c r="AV117" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW117" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="AX117" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY117" s="3" t="s">
-        <v>492</v>
       </c>
       <c r="AZ117" s="3" t="s">
         <v>67</v>
@@ -12897,15 +13249,15 @@
         <v>67</v>
       </c>
       <c r="BL117" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
-        <v>528</v>
+      <c r="A118" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C118" s="3">
         <v>3</v>
@@ -12920,13 +13272,13 @@
         <v>143</v>
       </c>
       <c r="G118" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>316</v>
@@ -12935,16 +13287,16 @@
         <v>344</v>
       </c>
       <c r="L118" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="M118" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="N118" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="M118" s="3" t="s">
+      <c r="O118" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="N118" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="O118" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="P118" s="3" t="s">
         <v>176</v>
@@ -12984,31 +13336,31 @@
         <v>104</v>
       </c>
       <c r="AQ118" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AR118" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS118" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AT118" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU118" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AV118" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW118" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AX118" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY118" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="AT118" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU118" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AV118" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW118" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AX118" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY118" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="AZ118" s="3" t="s">
         <v>67</v>
@@ -13028,15 +13380,15 @@
       </c>
       <c r="BL118" s="3"/>
       <c r="BM118" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="119" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>528</v>
+    <row r="119" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C119" s="3">
         <v>3</v>
@@ -13044,20 +13396,20 @@
       <c r="D119" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E119" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>143</v>
+      <c r="E119" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>676</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J119" s="3" t="s">
         <v>341</v>
@@ -13069,7 +13421,7 @@
         <v>357</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N119" s="3" t="s">
         <v>356</v>
@@ -13115,31 +13467,31 @@
         <v>104</v>
       </c>
       <c r="AQ119" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AR119" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS119" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AT119" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AU119" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV119" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW119" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AX119" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY119" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AZ119" s="3" t="s">
         <v>67</v>
@@ -13159,15 +13511,15 @@
       </c>
       <c r="BL119" s="3"/>
       <c r="BM119" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="120" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>528</v>
+    <row r="120" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C120" s="3">
         <v>3</v>
@@ -13176,19 +13528,19 @@
         <v>113</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>143</v>
+        <v>676</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J120" s="3" t="s">
         <v>334</v>
@@ -13197,7 +13549,7 @@
         <v>329</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
@@ -13238,31 +13590,31 @@
         <v>104</v>
       </c>
       <c r="AQ120" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AR120" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS120" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AT120" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AU120" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV120" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AW120" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AX120" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY120" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AZ120" s="3" t="s">
         <v>67</v>
@@ -13282,15 +13634,15 @@
       </c>
       <c r="BL120" s="3"/>
       <c r="BM120" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="121" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
-        <v>528</v>
+    <row r="121" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C121" s="3">
         <v>3</v>
@@ -13298,20 +13650,20 @@
       <c r="D121" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E121" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>143</v>
+      <c r="E121" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>675</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J121" s="3" t="s">
         <v>321</v>
@@ -13323,13 +13675,13 @@
         <v>316</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N121" s="3" t="s">
         <v>177</v>
       </c>
       <c r="O121" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="P121" s="3" t="s">
         <v>341</v>
@@ -13369,31 +13721,31 @@
         <v>104</v>
       </c>
       <c r="AQ121" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AR121" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS121" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AT121" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AU121" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV121" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW121" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AX121" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AY121" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AZ121" s="3" t="s">
         <v>67</v>
@@ -13413,15 +13765,15 @@
       </c>
       <c r="BL121" s="3"/>
       <c r="BM121" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="122" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
-        <v>528</v>
+    <row r="122" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C122" s="3">
         <v>3</v>
@@ -13436,13 +13788,13 @@
         <v>62</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J122" s="3" t="s">
         <v>344</v>
@@ -13454,10 +13806,10 @@
         <v>187</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N122" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>327</v>
@@ -13500,31 +13852,31 @@
         <v>104</v>
       </c>
       <c r="AQ122" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AR122" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS122" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AT122" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AU122" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV122" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AW122" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AX122" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY122" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AZ122" s="3" t="s">
         <v>67</v>
@@ -13545,11 +13897,11 @@
       <c r="BL122" s="3"/>
     </row>
     <row r="123" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
-        <v>528</v>
+      <c r="A123" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C123" s="3">
         <v>3</v>
@@ -13558,19 +13910,19 @@
         <v>113</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>143</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J123" s="3" t="s">
         <v>344</v>
@@ -13582,7 +13934,7 @@
         <v>353</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N123" s="3" t="s">
         <v>324</v>
@@ -13594,7 +13946,7 @@
         <v>339</v>
       </c>
       <c r="Q123" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="R123" s="3" t="s">
         <v>187</v>
@@ -13603,7 +13955,7 @@
         <v>204</v>
       </c>
       <c r="T123" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="U123" s="3"/>
       <c r="V123" s="3"/>
@@ -13659,46 +14011,46 @@
         <v>104</v>
       </c>
       <c r="BB123" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BC123" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD123" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE123" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF123" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG123" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH123" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="BI123" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BJ123" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BK123" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL123" s="3"/>
       <c r="BM123" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="124" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
-        <v>528</v>
+    <row r="124" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C124" s="3">
         <v>3</v>
@@ -13713,13 +14065,13 @@
         <v>62</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J124" s="3" t="s">
         <v>344</v>
@@ -13731,22 +14083,22 @@
         <v>339</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N124" s="3" t="s">
         <v>352</v>
       </c>
       <c r="O124" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="P124" s="3" t="s">
         <v>355</v>
       </c>
       <c r="Q124" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="R124" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="S124" s="3" t="s">
         <v>181</v>
@@ -13755,19 +14107,19 @@
         <v>200</v>
       </c>
       <c r="U124" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="V124" s="3" t="s">
         <v>165</v>
       </c>
       <c r="W124" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="X124" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="Y124" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Z124" s="3" t="s">
         <v>348</v>
@@ -13779,13 +14131,13 @@
         <v>363</v>
       </c>
       <c r="AC124" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AD124" s="3" t="s">
         <v>185</v>
       </c>
       <c r="AE124" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AF124" s="3" t="s">
         <v>353</v>
@@ -13832,43 +14184,43 @@
         <v>104</v>
       </c>
       <c r="BB124" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BC124" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD124" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE124" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF124" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG124" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BH124" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BI124" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BJ124" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="BK124" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL124" s="3"/>
     </row>
-    <row r="125" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
-        <v>528</v>
+    <row r="125" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C125" s="3">
         <v>3</v>
@@ -13877,19 +14229,19 @@
         <v>113</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J125" s="3" t="s">
         <v>329</v>
@@ -13901,13 +14253,13 @@
         <v>355</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N125" s="3" t="s">
         <v>326</v>
       </c>
       <c r="O125" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P125" s="3" t="s">
         <v>243</v>
@@ -13970,43 +14322,43 @@
         <v>104</v>
       </c>
       <c r="BB125" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BC125" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD125" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE125" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF125" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG125" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BH125" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BI125" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BJ125" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="BK125" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL125" s="3"/>
     </row>
-    <row r="126" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
-        <v>528</v>
+    <row r="126" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C126" s="3">
         <v>3</v>
@@ -14021,13 +14373,13 @@
         <v>62</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J126" s="3" t="s">
         <v>327</v>
@@ -14039,7 +14391,7 @@
         <v>348</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N126" s="3" t="s">
         <v>330</v>
@@ -14051,7 +14403,7 @@
         <v>329</v>
       </c>
       <c r="Q126" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="R126" s="3" t="s">
         <v>356</v>
@@ -14116,43 +14468,43 @@
         <v>104</v>
       </c>
       <c r="BB126" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BC126" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD126" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE126" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF126" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG126" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BH126" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BI126" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BJ126" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="BK126" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL126" s="3"/>
     </row>
-    <row r="127" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
-        <v>528</v>
+    <row r="127" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C127" s="3">
         <v>3</v>
@@ -14161,19 +14513,19 @@
         <v>113</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J127" s="3" t="s">
         <v>181</v>
@@ -14185,13 +14537,13 @@
         <v>348</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N127" s="3" t="s">
         <v>361</v>
       </c>
       <c r="O127" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="P127" s="3" t="s">
         <v>321</v>
@@ -14254,31 +14606,31 @@
         <v>104</v>
       </c>
       <c r="BB127" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BC127" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD127" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE127" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF127" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG127" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BH127" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BI127" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BJ127" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BK127" s="3" t="s">
         <v>67</v>
@@ -14286,11 +14638,11 @@
       <c r="BL127" s="3"/>
     </row>
     <row r="128" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="s">
-        <v>528</v>
+      <c r="A128" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C128" s="3">
         <v>3</v>
@@ -14305,13 +14657,13 @@
         <v>143</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J128" s="3" t="s">
         <v>321</v>
@@ -14323,16 +14675,16 @@
         <v>187</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N128" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="P128" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="O128" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="P128" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="3"/>
@@ -14369,31 +14721,31 @@
         <v>79</v>
       </c>
       <c r="AQ128" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AR128" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS128" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AT128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU128" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AV128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW128" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AX128" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY128" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="AT128" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU128" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AV128" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW128" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AX128" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AY128" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="AZ128" s="3" t="s">
         <v>67</v>
@@ -14413,15 +14765,15 @@
       </c>
       <c r="BL128" s="3"/>
       <c r="BM128" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="129" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
-        <v>528</v>
+    <row r="129" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C129" s="3">
         <v>3</v>
@@ -14429,20 +14781,20 @@
       <c r="D129" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E129" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>143</v>
+      <c r="E129" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>676</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J129" s="3" t="s">
         <v>329</v>
@@ -14492,31 +14844,31 @@
         <v>79</v>
       </c>
       <c r="AQ129" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AR129" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS129" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AT129" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AU129" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV129" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AW129" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AX129" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY129" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AZ129" s="3" t="s">
         <v>67</v>
@@ -14536,15 +14888,15 @@
       </c>
       <c r="BL129" s="3"/>
       <c r="BM129" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="130" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
-        <v>528</v>
+    <row r="130" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C130" s="3">
         <v>3</v>
@@ -14552,20 +14904,20 @@
       <c r="D130" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>143</v>
+      <c r="E130" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>676</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J130" s="3" t="s">
         <v>348</v>
@@ -14577,7 +14929,7 @@
         <v>334</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="N130" s="3" t="s">
         <v>336</v>
@@ -14623,31 +14975,31 @@
         <v>79</v>
       </c>
       <c r="AQ130" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AR130" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS130" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AT130" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AU130" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV130" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW130" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AX130" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY130" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AZ130" s="3" t="s">
         <v>67</v>
@@ -14667,15 +15019,15 @@
       </c>
       <c r="BL130" s="3"/>
       <c r="BM130" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="131" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
-        <v>528</v>
+    <row r="131" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C131" s="3">
         <v>3</v>
@@ -14683,20 +15035,20 @@
       <c r="D131" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>143</v>
+      <c r="E131" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>675</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J131" s="3" t="s">
         <v>181</v>
@@ -14708,13 +15060,13 @@
         <v>339</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="N131" s="3" t="s">
         <v>213</v>
       </c>
       <c r="O131" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="P131" s="3" t="s">
         <v>324</v>
@@ -14754,31 +15106,31 @@
         <v>79</v>
       </c>
       <c r="AQ131" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AR131" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS131" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AT131" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AU131" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV131" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AW131" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AX131" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AY131" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AZ131" s="3" t="s">
         <v>67</v>
@@ -14798,15 +15150,15 @@
       </c>
       <c r="BL131" s="3"/>
       <c r="BM131" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="132" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
-        <v>528</v>
+      <c r="A132" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C132" s="6">
         <v>3</v>
@@ -14815,19 +15167,19 @@
         <v>113</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F132" s="6" t="s">
         <v>143</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H132" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J132" s="6" t="s">
         <v>344</v>
@@ -14839,7 +15191,7 @@
         <v>329</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N132" s="6" t="s">
         <v>327</v>
@@ -14851,13 +15203,13 @@
         <v>329</v>
       </c>
       <c r="Q132" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="R132" s="6" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="S132" s="6" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="T132" s="6" t="s">
         <v>169</v>
@@ -14916,46 +15268,46 @@
         <v>79</v>
       </c>
       <c r="BB132" s="6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="BC132" s="6" t="s">
         <v>81</v>
       </c>
       <c r="BD132" s="6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE132" s="6" t="s">
         <v>79</v>
       </c>
       <c r="BF132" s="6" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG132" s="6" t="s">
         <v>104</v>
       </c>
       <c r="BH132" s="6" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="BI132" s="6" t="s">
         <v>104</v>
       </c>
       <c r="BJ132" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BK132" s="6" t="s">
         <v>67</v>
       </c>
       <c r="BL132" s="6"/>
       <c r="BM132" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
-    <row r="133" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A133" s="3" t="s">
-        <v>528</v>
+    <row r="133" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C133" s="3">
         <v>3</v>
@@ -14970,13 +15322,13 @@
         <v>62</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="J133" s="3" t="s">
         <v>321</v>
@@ -14988,13 +15340,13 @@
         <v>339</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O133" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>321</v>
@@ -15034,31 +15386,31 @@
         <v>79</v>
       </c>
       <c r="AQ133" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="AR133" s="3" t="s">
         <v>81</v>
       </c>
       <c r="AS133" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AT133" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AU133" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AV133" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AW133" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AX133" s="3" t="s">
         <v>79</v>
       </c>
       <c r="AY133" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AZ133" s="3" t="s">
         <v>67</v>
@@ -15078,12 +15430,12 @@
       </c>
       <c r="BL133" s="3"/>
     </row>
-    <row r="134" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A134" s="3" t="s">
-        <v>528</v>
+    <row r="134" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C134" s="3">
         <v>3</v>
@@ -15098,13 +15450,13 @@
         <v>62</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="J134" s="3" t="s">
         <v>321</v>
@@ -15116,7 +15468,7 @@
         <v>339</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N134" s="3" t="s">
         <v>354</v>
@@ -15128,7 +15480,7 @@
         <v>329</v>
       </c>
       <c r="Q134" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="R134" s="3" t="s">
         <v>181</v>
@@ -15140,19 +15492,19 @@
         <v>353</v>
       </c>
       <c r="U134" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="V134" s="3" t="s">
         <v>216</v>
       </c>
       <c r="W134" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="X134" s="3" t="s">
         <v>354</v>
       </c>
       <c r="Y134" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="Z134" s="3" t="s">
         <v>341</v>
@@ -15164,10 +15516,10 @@
         <v>348</v>
       </c>
       <c r="AC134" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AD134" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AE134" s="3" t="s">
         <v>317</v>
@@ -15217,43 +15569,43 @@
         <v>79</v>
       </c>
       <c r="BB134" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="BC134" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD134" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE134" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF134" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG134" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BH134" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BI134" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BJ134" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="BK134" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL134" s="3"/>
     </row>
-    <row r="135" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A135" s="3" t="s">
-        <v>528</v>
+    <row r="135" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C135" s="3">
         <v>3</v>
@@ -15262,19 +15614,19 @@
         <v>113</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J135" s="3" t="s">
         <v>321</v>
@@ -15286,13 +15638,13 @@
         <v>339</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N135" s="3" t="s">
         <v>222</v>
       </c>
       <c r="O135" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P135" s="3" t="s">
         <v>310</v>
@@ -15355,43 +15707,43 @@
         <v>79</v>
       </c>
       <c r="BB135" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="BC135" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD135" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE135" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF135" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG135" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BH135" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BI135" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BJ135" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="BK135" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL135" s="3"/>
     </row>
-    <row r="136" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A136" s="3" t="s">
-        <v>528</v>
+    <row r="136" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C136" s="3">
         <v>3</v>
@@ -15406,13 +15758,13 @@
         <v>62</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J136" s="3" t="s">
         <v>321</v>
@@ -15424,7 +15776,7 @@
         <v>339</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N136" s="3" t="s">
         <v>321</v>
@@ -15436,7 +15788,7 @@
         <v>339</v>
       </c>
       <c r="Q136" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="R136" s="3" t="s">
         <v>339</v>
@@ -15501,43 +15853,43 @@
         <v>79</v>
       </c>
       <c r="BB136" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="BC136" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD136" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE136" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF136" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG136" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BH136" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BI136" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BJ136" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="BK136" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL136" s="3"/>
     </row>
-    <row r="137" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A137" s="3" t="s">
-        <v>528</v>
+    <row r="137" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="10" t="s">
+        <v>526</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C137" s="3">
         <v>3</v>
@@ -15546,19 +15898,19 @@
         <v>113</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F137" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="G137" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="G137" s="3" t="s">
-        <v>579</v>
-      </c>
       <c r="H137" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J137" s="3" t="s">
         <v>329</v>
@@ -15570,7 +15922,7 @@
         <v>341</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="N137" s="3" t="s">
         <v>326</v>
@@ -15639,31 +15991,31 @@
         <v>79</v>
       </c>
       <c r="BB137" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="BC137" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD137" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BE137" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BF137" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BG137" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BH137" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="BI137" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BJ137" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="BK137" s="3" t="s">
         <v>67</v>
@@ -15672,10 +16024,10 @@
     </row>
     <row r="138" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C138" s="3">
         <v>3</v>
@@ -15684,25 +16036,25 @@
         <v>113</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>143</v>
       </c>
       <c r="G138" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="I138" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="H138" s="3" t="s">
+      <c r="J138" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="I138" s="3" t="s">
+      <c r="K138" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="J138" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="L138" s="3" t="s">
         <v>352</v>
@@ -15769,48 +16121,48 @@
         <v>76</v>
       </c>
       <c r="BB138" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="BC138" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BD138" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="BE138" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BF138" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="BG138" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH138" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="BE138" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF138" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="BG138" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="BH138" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="BI138" s="3" t="s">
         <v>76</v>
       </c>
       <c r="BJ138" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="BK138" s="3" t="s">
         <v>83</v>
       </c>
       <c r="BL138" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="BM138" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
-    <row r="139" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C139" s="3">
         <v>3</v>
@@ -15819,73 +16171,73 @@
         <v>113</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G139" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I139" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="J139" s="3" t="s">
         <v>220</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M139" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="O139" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="N139" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="O139" s="3" t="s">
-        <v>610</v>
       </c>
       <c r="P139" s="3" t="s">
         <v>237</v>
       </c>
       <c r="Q139" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="R139" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="S139" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="R139" s="3" t="s">
+      <c r="T139" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="U139" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="S139" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="T139" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="U139" s="3" t="s">
-        <v>614</v>
-      </c>
       <c r="V139" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W139" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X139" s="3" t="s">
         <v>310</v>
       </c>
       <c r="Y139" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Z139" s="3" t="s">
         <v>237</v>
       </c>
       <c r="AA139" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AB139" s="3" t="s">
         <v>334</v>
@@ -15936,45 +16288,45 @@
         <v>81</v>
       </c>
       <c r="BB139" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BC139" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BD139" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BE139" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BF139" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BG139" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH139" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BI139" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BJ139" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK139" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL139" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="140" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C140" s="3">
         <v>3</v>
@@ -15983,73 +16335,73 @@
         <v>113</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G140" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I140" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H140" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="J140" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>303</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N140" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="P140" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="R140" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="O140" s="3" t="s">
+      <c r="S140" s="3" t="s">
         <v>625</v>
-      </c>
-      <c r="P140" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q140" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="R140" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="S140" s="3" t="s">
-        <v>627</v>
       </c>
       <c r="T140" s="3" t="s">
         <v>299</v>
       </c>
       <c r="U140" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="V140" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="W140" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="X140" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y140" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="Z140" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="AA140" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="W140" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="X140" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y140" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="Z140" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA140" s="3" t="s">
-        <v>630</v>
       </c>
       <c r="AB140" s="3" t="s">
         <v>303</v>
@@ -16100,45 +16452,45 @@
         <v>81</v>
       </c>
       <c r="BB140" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BC140" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BD140" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BE140" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BF140" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BG140" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH140" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BI140" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BJ140" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK140" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL140" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="141" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C141" s="3">
         <v>3</v>
@@ -16147,76 +16499,76 @@
         <v>113</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G141" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I141" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H141" s="3" t="s">
+      <c r="J141" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="M141" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="I141" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="J141" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="K141" s="3" t="s">
+      <c r="N141" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="O141" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="M141" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="N141" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="O141" s="3" t="s">
-        <v>634</v>
       </c>
       <c r="P141" s="3" t="s">
         <v>227</v>
       </c>
       <c r="Q141" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="R141" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="S141" s="3" t="s">
         <v>205</v>
       </c>
       <c r="T141" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U141" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="V141" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="W141" s="3" t="s">
         <v>308</v>
       </c>
       <c r="X141" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="Y141" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Z141" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AA141" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AB141" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AC141" s="3"/>
       <c r="AD141" s="3"/>
@@ -16264,45 +16616,45 @@
         <v>81</v>
       </c>
       <c r="BB141" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BC141" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BD141" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BE141" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BF141" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BG141" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH141" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BI141" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BJ141" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK141" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL141" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="142" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C142" s="3">
         <v>3</v>
@@ -16311,73 +16663,73 @@
         <v>113</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G142" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I142" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H142" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="J142" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L142" s="3" t="s">
         <v>227</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P142" s="3" t="s">
         <v>300</v>
       </c>
       <c r="Q142" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="R142" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="S142" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="T142" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="U142" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="V142" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="W142" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="S142" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="T142" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="U142" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="V142" s="3" t="s">
-        <v>642</v>
-      </c>
-      <c r="W142" s="3" t="s">
-        <v>646</v>
       </c>
       <c r="X142" s="3" t="s">
         <v>225</v>
       </c>
       <c r="Y142" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Z142" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AA142" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB142" s="3" t="s">
         <v>225</v>
@@ -16428,45 +16780,45 @@
         <v>81</v>
       </c>
       <c r="BB142" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BC142" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BD142" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BE142" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BF142" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BG142" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH142" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BI142" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BJ142" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK142" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL142" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="143" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A143" s="3" t="s">
-        <v>603</v>
+    <row r="143" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
+        <v>32508669</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C143" s="3">
         <v>3</v>
@@ -16481,67 +16833,67 @@
         <v>62</v>
       </c>
       <c r="G143" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I143" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H143" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="J143" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L143" s="3" t="s">
         <v>190</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N143" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="O143" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="P143" s="3" t="s">
         <v>176</v>
       </c>
       <c r="Q143" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="R143" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="S143" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="T143" s="3" t="s">
         <v>201</v>
       </c>
       <c r="U143" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="V143" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="W143" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="X143" s="3" t="s">
         <v>201</v>
       </c>
       <c r="Y143" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Z143" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="AA143" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AB143" s="3" t="s">
         <v>201</v>
@@ -16592,45 +16944,45 @@
         <v>81</v>
       </c>
       <c r="BB143" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BC143" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BD143" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BE143" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BF143" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BG143" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH143" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BI143" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BJ143" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK143" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL143" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="144" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C144" s="3">
         <v>3</v>
@@ -16639,76 +16991,76 @@
         <v>113</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>62</v>
       </c>
       <c r="G144" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I144" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H144" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="J144" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="K144" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
+      </c>
+      <c r="K144" s="6">
+        <v>11.5</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>300</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Q144" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="R144" s="3" t="s">
         <v>170</v>
       </c>
       <c r="S144" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="T144" s="3" t="s">
         <v>304</v>
       </c>
       <c r="U144" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="V144" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="W144" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X144" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="Y144" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Z144" s="3" t="s">
         <v>166</v>
       </c>
       <c r="AA144" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AB144" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AC144" s="3"/>
       <c r="AD144" s="3"/>
@@ -16756,45 +17108,45 @@
         <v>81</v>
       </c>
       <c r="BB144" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BC144" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BD144" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BE144" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BF144" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BG144" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH144" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BI144" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BJ144" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK144" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL144" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="145" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C145" s="3">
         <v>3</v>
@@ -16803,73 +17155,73 @@
         <v>113</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G145" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H145" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="J145" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>228</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="O145" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Q145" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="R145" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="S145" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="T145" s="3" t="s">
         <v>225</v>
       </c>
       <c r="U145" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="V145" s="3" t="s">
         <v>235</v>
       </c>
       <c r="W145" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="X145" s="3" t="s">
         <v>309</v>
       </c>
       <c r="Y145" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Z145" s="3" t="s">
         <v>199</v>
       </c>
       <c r="AA145" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AB145" s="3" t="s">
         <v>357</v>
@@ -16920,45 +17272,45 @@
         <v>81</v>
       </c>
       <c r="BB145" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BC145" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BD145" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BE145" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BF145" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BG145" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH145" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BI145" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BJ145" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK145" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL145" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
-    <row r="146" spans="1:64" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C146" s="3">
         <v>3</v>
@@ -16973,67 +17325,67 @@
         <v>62</v>
       </c>
       <c r="G146" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="I146" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="H146" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="J146" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="L146" s="3" t="s">
         <v>228</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Q146" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="R146" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="S146" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U146" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="V146" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="W146" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="X146" s="3" t="s">
         <v>201</v>
       </c>
       <c r="Y146" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="Z146" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AA146" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AB146" s="3" t="s">
         <v>225</v>
@@ -17084,45 +17436,45 @@
         <v>81</v>
       </c>
       <c r="BB146" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BC146" s="3" t="s">
         <v>79</v>
       </c>
       <c r="BD146" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="BE146" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BF146" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BG146" s="3" t="s">
         <v>104</v>
       </c>
       <c r="BH146" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="BI146" s="3" t="s">
         <v>81</v>
       </c>
       <c r="BJ146" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="BK146" s="3" t="s">
         <v>67</v>
       </c>
       <c r="BL146" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="147" spans="1:64" x14ac:dyDescent="0.35">
-      <c r="A147" s="3" t="s">
-        <v>673</v>
+    <row r="147" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
+        <v>32509363</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C147" s="3">
         <v>3</v>
@@ -17195,8 +17547,43 @@
       </c>
       <c r="BL147" s="3"/>
     </row>
+    <row r="148" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>132</v>
+      </c>
+      <c r="B148" t="s">
+        <v>59</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="149" spans="1:64" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C149" s="3">
+        <v>3</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BM147" xr:uid="{EE413462-7D2A-4EE8-9C91-BC1C0A501EF5}"/>
+  <autoFilter ref="A1:BM149" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Infectious conditions"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/datasets/distiller_cross.xlsx
+++ b/datasets/distiller_cross.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{C2097325-5BDE-4D1A-AE8E-C2497944DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFECB6F9-1265-4542-B702-785D5E4248BC}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{C2097325-5BDE-4D1A-AE8E-C2497944DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5370AE62-4DB5-40C8-B6AA-4A2C02115CE3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$BM$149</definedName>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4456" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4391" uniqueCount="678">
   <si>
     <t>Refid</t>
   </si>
@@ -2471,15 +2470,16 @@
   <dimension ref="A1:BM149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="5.25" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="7" width="15.08203125" customWidth="1"/>
     <col min="8" max="64" width="8.58203125" customWidth="1"/>
@@ -2682,7 +2682,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="2" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="7" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="8" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="13" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="17" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="18" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="20" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="21" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="23" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="24" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>58</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="25" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="26" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="27" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="28" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="30" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="31" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="32" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="33" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="35" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="36" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>58</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="38" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="39" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="41" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>58</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="42" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>58</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="43" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="44" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="45" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="46" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5445,7 +5445,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="47" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="48" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>58</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="49" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="50" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="51" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="52" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="53" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="55" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="56" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="79" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>134</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="80" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>134</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="118" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>526</v>
       </c>
@@ -13896,7 +13896,7 @@
       </c>
       <c r="BL122" s="3"/>
     </row>
-    <row r="123" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>526</v>
       </c>
@@ -14637,7 +14637,7 @@
       </c>
       <c r="BL127" s="3"/>
     </row>
-    <row r="128" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
         <v>526</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="132" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:65" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>526</v>
       </c>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="BL137" s="3"/>
     </row>
-    <row r="138" spans="1:65" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:65" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>588</v>
       </c>
@@ -17578,230 +17578,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:BM149" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="5">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Infectious conditions"/>
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA5C854-55CA-4096-A21E-773180DF3F0A}">
-  <dimension ref="A1:W4"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:W4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="H2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="H3" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="H4" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>